--- a/ProcessedData/conf_svm_early_fusion_5.xlsx
+++ b/ProcessedData/conf_svm_early_fusion_5.xlsx
@@ -14,18 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>video_number</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>prediction</t>
@@ -393,20 +384,20 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -414,13 +405,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.543850322467022</v>
+        <v>-0.6712312627608081</v>
       </c>
       <c r="C2">
-        <v>3.557569639348164</v>
+        <v>-1.650050653657805</v>
       </c>
       <c r="D2">
-        <v>-0.7582613961222918</v>
+        <v>-3.73865613067</v>
+      </c>
+      <c r="E2">
+        <v>37</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -431,13 +425,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.6323020050077828</v>
+        <v>-1.488369202086837</v>
       </c>
       <c r="C3">
-        <v>2.885750287927307</v>
+        <v>0.00540973461139993</v>
       </c>
       <c r="D3">
-        <v>0.6001561933928351</v>
+        <v>-0.5567774148083523</v>
+      </c>
+      <c r="E3">
+        <v>37</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -448,13 +445,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-1.117562185276651</v>
+        <v>-1.215704676317755</v>
       </c>
       <c r="C4">
-        <v>3.074708539338912</v>
+        <v>0.1956870508970324</v>
       </c>
       <c r="D4">
-        <v>-0.4458478826065323</v>
+        <v>-1.538654332215309</v>
+      </c>
+      <c r="E4">
+        <v>37</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -465,13 +465,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.07635132416762791</v>
+        <v>-0.9561273470472142</v>
       </c>
       <c r="C5">
-        <v>2.231451386842763</v>
+        <v>-0.2071204461297783</v>
       </c>
       <c r="D5">
-        <v>0.06542738630644218</v>
+        <v>-0.97500531078493</v>
+      </c>
+      <c r="E5">
+        <v>37</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -482,13 +485,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.6842929143515926</v>
+        <v>-1.61365990467472</v>
       </c>
       <c r="C6">
-        <v>4.296760178138787</v>
+        <v>0.3880346821491218</v>
       </c>
       <c r="D6">
-        <v>-0.302852791117066</v>
+        <v>-1.48109276328977</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -499,16 +505,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.8176288879566119</v>
+        <v>-1.738843149164722</v>
       </c>
       <c r="C7">
-        <v>1.737784060768585</v>
+        <v>-0.320496592198788</v>
       </c>
       <c r="D7">
-        <v>0.5648755053639597</v>
+        <v>-0.2042540631358497</v>
+      </c>
+      <c r="E7">
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -516,13 +525,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-0.2040559255985284</v>
+        <v>-0.8155870157745096</v>
       </c>
       <c r="C8">
-        <v>2.138420624167128</v>
+        <v>-0.4727820004836653</v>
       </c>
       <c r="D8">
-        <v>0.1036661364217609</v>
+        <v>-0.8021597484469578</v>
+      </c>
+      <c r="E8">
+        <v>37</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -533,13 +545,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-1.407763217614135</v>
+        <v>-2.073547732245364</v>
       </c>
       <c r="C9">
-        <v>3.010347329419742</v>
+        <v>0.03288533667119009</v>
       </c>
       <c r="D9">
-        <v>1.673474554372504</v>
+        <v>-0.07852332065213297</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -550,13 +565,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-0.6159726345217411</v>
+        <v>-1.280393904763527</v>
       </c>
       <c r="C10">
-        <v>2.884732608379275</v>
+        <v>0.3609181768311223</v>
       </c>
       <c r="D10">
-        <v>0.09024167519130299</v>
+        <v>-1.103186329816513</v>
+      </c>
+      <c r="E10">
+        <v>37</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -567,13 +585,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-0.8036544223929365</v>
+        <v>-0.9911390102126869</v>
       </c>
       <c r="C11">
-        <v>2.012465184989861</v>
+        <v>0.4041032087146277</v>
       </c>
       <c r="D11">
-        <v>-0.9680397276335628</v>
+        <v>-1.430843721892999</v>
+      </c>
+      <c r="E11">
+        <v>37</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -584,16 +605,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-1.732408318366974</v>
+        <v>-2.051665047598246</v>
       </c>
       <c r="C12">
-        <v>2.255855818825565</v>
+        <v>-1.031974852312406</v>
       </c>
       <c r="D12">
-        <v>1.391574112862319</v>
+        <v>-0.924200931005741</v>
+      </c>
+      <c r="E12">
+        <v>37</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -601,16 +625,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.271091309458005</v>
+        <v>-2.499010963831421</v>
       </c>
       <c r="C13">
-        <v>2.284022646158964</v>
+        <v>-0.5706912492173016</v>
       </c>
       <c r="D13">
-        <v>1.202915702318397</v>
+        <v>-0.1932202505256685</v>
+      </c>
+      <c r="E13">
+        <v>37</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -618,16 +645,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>-1.382817520198345</v>
+        <v>-1.914270874821952</v>
       </c>
       <c r="C14">
-        <v>2.171075152749094</v>
+        <v>-0.3559855137174767</v>
       </c>
       <c r="D14">
-        <v>0.5117662681326148</v>
+        <v>-0.2408148068430075</v>
+      </c>
+      <c r="E14">
+        <v>37</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -635,16 +665,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.048303186712033</v>
+        <v>-3.975275294279053</v>
       </c>
       <c r="C15">
-        <v>5.17457130478102</v>
+        <v>-1.120486058569647</v>
       </c>
       <c r="D15">
-        <v>2.787693610001514</v>
+        <v>-0.06517647870014043</v>
+      </c>
+      <c r="E15">
+        <v>37</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -652,16 +685,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>-1.74537513360834</v>
+        <v>-3.250086824989604</v>
       </c>
       <c r="C16">
-        <v>4.420441104112966</v>
+        <v>-0.8242462613454068</v>
       </c>
       <c r="D16">
-        <v>1.746737572941408</v>
+        <v>-0.3304268867503121</v>
+      </c>
+      <c r="E16">
+        <v>37</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -669,13 +705,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-1.742128646588417</v>
+        <v>-1.592771899289844</v>
       </c>
       <c r="C17">
-        <v>3.502200545459019</v>
+        <v>0.3485782085961907</v>
       </c>
       <c r="D17">
-        <v>-0.8356590734807382</v>
+        <v>-1.934472980202774</v>
+      </c>
+      <c r="E17">
+        <v>37</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -686,16 +725,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.128956199642725</v>
+        <v>-2.137428849541974</v>
       </c>
       <c r="C18">
-        <v>2.632675256351984</v>
+        <v>-0.5494423072567026</v>
       </c>
       <c r="D18">
-        <v>1.068186114764007</v>
+        <v>-0.3678472749514304</v>
+      </c>
+      <c r="E18">
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -703,16 +745,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>-0.9396533677127547</v>
+        <v>-1.898397412253884</v>
       </c>
       <c r="C19">
-        <v>2.721109941028661</v>
+        <v>-0.4858013156995346</v>
       </c>
       <c r="D19">
-        <v>1.079541789109108</v>
+        <v>-0.3577698873727468</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -720,13 +765,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-0.1610109976707668</v>
+        <v>-1.076838276562308</v>
       </c>
       <c r="C20">
-        <v>2.633211952817626</v>
+        <v>-0.115289945912352</v>
       </c>
       <c r="D20">
-        <v>-0.622447738132746</v>
+        <v>-1.258179531245513</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -737,13 +785,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.5853682779715499</v>
+        <v>-1.109429506703255</v>
       </c>
       <c r="C21">
-        <v>1.141311976709454</v>
+        <v>-0.1860386396069228</v>
       </c>
       <c r="D21">
-        <v>-0.3592972309006192</v>
+        <v>-0.7025362349219471</v>
+      </c>
+      <c r="E21">
+        <v>37</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -754,13 +805,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-1.486010236409339</v>
+        <v>-1.92546744414711</v>
       </c>
       <c r="C22">
-        <v>3.461744539712564</v>
+        <v>0.05807120732504345</v>
       </c>
       <c r="D22">
-        <v>0.616868012566259</v>
+        <v>-0.831184564896668</v>
+      </c>
+      <c r="E22">
+        <v>37</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -771,13 +825,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-1.928114892885518</v>
+        <v>-2.155643489864403</v>
       </c>
       <c r="C23">
-        <v>3.831000478995449</v>
+        <v>-0.2971117735496555</v>
       </c>
       <c r="D23">
-        <v>0.8991660366229349</v>
+        <v>-0.7608110724657328</v>
+      </c>
+      <c r="E23">
+        <v>37</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -788,13 +845,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>-3.217849415124484</v>
+        <v>-3.830848800290297</v>
       </c>
       <c r="C24">
-        <v>7.315068719407275</v>
+        <v>0.2174596401490557</v>
       </c>
       <c r="D24">
-        <v>1.799508316760895</v>
+        <v>-1.176314297076351</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -805,13 +865,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>-1.467547576389646</v>
+        <v>-2.292774622056673</v>
       </c>
       <c r="C25">
-        <v>3.604115364625013</v>
+        <v>-0.2697927729000621</v>
       </c>
       <c r="D25">
-        <v>0.6216155560327618</v>
+        <v>-1.405994218641093</v>
+      </c>
+      <c r="E25">
+        <v>37</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -822,13 +885,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>-0.9112512447231494</v>
+        <v>-1.431010421116219</v>
       </c>
       <c r="C26">
-        <v>0.09526169614485847</v>
+        <v>-1.118004966365509</v>
       </c>
       <c r="D26">
-        <v>0.3033411647706871</v>
+        <v>-0.1902324825158891</v>
+      </c>
+      <c r="E26">
+        <v>37</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -839,13 +905,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>-1.891303529088011</v>
+        <v>-2.805985306245645</v>
       </c>
       <c r="C27">
-        <v>2.38870913222124</v>
+        <v>-0.3876197957795059</v>
       </c>
       <c r="D27">
-        <v>2.94223726614234</v>
+        <v>1.203533153863576</v>
+      </c>
+      <c r="E27">
+        <v>37</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -856,13 +925,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.939476368356079</v>
+        <v>-0.9015544625480344</v>
       </c>
       <c r="C28">
-        <v>5.491302654142519</v>
+        <v>-2.042359590199439</v>
       </c>
       <c r="D28">
-        <v>-1.273624379039844</v>
+        <v>-5.544893902315073</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -873,13 +945,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>-1.463678238652399</v>
+        <v>-1.736337982021994</v>
       </c>
       <c r="C29">
-        <v>2.611412944013701</v>
+        <v>0.3142598675336628</v>
       </c>
       <c r="D29">
-        <v>-0.2800940689422574</v>
+        <v>-1.109462630056071</v>
+      </c>
+      <c r="E29">
+        <v>38</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -890,13 +965,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.2334637221777125</v>
+        <v>-1.048210966334366</v>
       </c>
       <c r="C30">
-        <v>2.335024269596362</v>
+        <v>-0.6083885252352254</v>
       </c>
       <c r="D30">
-        <v>-0.1877384903529496</v>
+        <v>-1.786226772415864</v>
+      </c>
+      <c r="E30">
+        <v>38</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -907,13 +985,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>-0.6962046162522642</v>
+        <v>-1.575432957065415</v>
       </c>
       <c r="C31">
-        <v>2.591189601297509</v>
+        <v>-0.3106747424452648</v>
       </c>
       <c r="D31">
-        <v>0.377845543406378</v>
+        <v>-0.9305190496204654</v>
+      </c>
+      <c r="E31">
+        <v>38</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -924,13 +1005,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>-1.858222671620825</v>
+        <v>-3.651990039408049</v>
       </c>
       <c r="C32">
-        <v>7.409748819368973</v>
+        <v>-0.06323483275380382</v>
       </c>
       <c r="D32">
-        <v>2.187723743763021</v>
+        <v>-1.075148091503598</v>
+      </c>
+      <c r="E32">
+        <v>38</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -941,13 +1025,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>-1.519105782000831</v>
+        <v>-3.010451310608887</v>
       </c>
       <c r="C33">
-        <v>6.234891445032595</v>
+        <v>-0.1716770469919537</v>
       </c>
       <c r="D33">
-        <v>1.554075372443818</v>
+        <v>-1.21358407930242</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -958,13 +1045,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>-0.2046965057664707</v>
+        <v>-0.6524954902255465</v>
       </c>
       <c r="C34">
-        <v>1.585293397159108</v>
+        <v>-0.5074311011243978</v>
       </c>
       <c r="D34">
-        <v>0.02189633662301949</v>
+        <v>-1.173550554432646</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -975,13 +1065,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>-1.398025398655859</v>
+        <v>-1.255677735515786</v>
       </c>
       <c r="C35">
-        <v>0.6224330206908231</v>
+        <v>0.1226335190772316</v>
       </c>
       <c r="D35">
-        <v>0.042202187465048</v>
+        <v>-0.3929933481348524</v>
+      </c>
+      <c r="E35">
+        <v>38</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -992,13 +1085,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>-1.613110472960833</v>
+        <v>-1.894266396314519</v>
       </c>
       <c r="C36">
-        <v>3.651339495940899</v>
+        <v>0.2289874536944071</v>
       </c>
       <c r="D36">
-        <v>0.08602908020008215</v>
+        <v>-1.646764146279894</v>
+      </c>
+      <c r="E36">
+        <v>38</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1009,13 +1105,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>-0.9099194169378055</v>
+        <v>-1.442395518422788</v>
       </c>
       <c r="C37">
-        <v>1.443566753881397</v>
+        <v>-0.5129842852192311</v>
       </c>
       <c r="D37">
-        <v>0.04872704471755507</v>
+        <v>-0.8379104981725838</v>
+      </c>
+      <c r="E37">
+        <v>38</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1026,13 +1125,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>-2.152289437943554</v>
+        <v>-2.4241696788997</v>
       </c>
       <c r="C38">
-        <v>2.840323171897162</v>
+        <v>-0.2065140965001649</v>
       </c>
       <c r="D38">
-        <v>0.6130034362524565</v>
+        <v>-0.816440189256269</v>
+      </c>
+      <c r="E38">
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1043,13 +1145,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>-1.102811238196823</v>
+        <v>-1.57280438000389</v>
       </c>
       <c r="C39">
-        <v>2.545047556651177</v>
+        <v>-0.4340731635064429</v>
       </c>
       <c r="D39">
-        <v>0.2794046633068917</v>
+        <v>-1.033895988069607</v>
+      </c>
+      <c r="E39">
+        <v>38</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1060,13 +1165,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>-1.33858917694055</v>
+        <v>-2.178811034094506</v>
       </c>
       <c r="C40">
-        <v>3.445494219060512</v>
+        <v>-0.3489376441807762</v>
       </c>
       <c r="D40">
-        <v>0.7551806076957398</v>
+        <v>-0.7970801400256848</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1077,13 +1185,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>-1.34397216127985</v>
+        <v>-2.062245704896589</v>
       </c>
       <c r="C41">
-        <v>3.616313868848277</v>
+        <v>-0.2181383850714859</v>
       </c>
       <c r="D41">
-        <v>1.052393331701541</v>
+        <v>-0.7978787558677078</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1094,13 +1205,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>-1.173405089704222</v>
+        <v>-1.867273263408284</v>
       </c>
       <c r="C42">
-        <v>2.472895097948903</v>
+        <v>0.5620434210654198</v>
       </c>
       <c r="D42">
-        <v>-0.2049317449766321</v>
+        <v>-1.055807197420737</v>
+      </c>
+      <c r="E42">
+        <v>38</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1111,13 +1225,16 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>-0.9911500386525297</v>
+        <v>-1.591158396243799</v>
       </c>
       <c r="C43">
-        <v>2.602843010160623</v>
+        <v>-0.9553059769294566</v>
       </c>
       <c r="D43">
-        <v>-0.2652266058853904</v>
+        <v>-1.947266496974992</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1128,13 +1245,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>-0.7931565244937864</v>
+        <v>-1.607001566918542</v>
       </c>
       <c r="C44">
-        <v>2.16833357530775</v>
+        <v>-0.07328975529511095</v>
       </c>
       <c r="D44">
-        <v>0.2207648195066146</v>
+        <v>-0.8578137681340936</v>
+      </c>
+      <c r="E44">
+        <v>38</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1145,16 +1265,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>-0.6232624210622277</v>
+        <v>-0.8699925104238589</v>
       </c>
       <c r="C45">
-        <v>0.06567686970143227</v>
+        <v>-0.5155300402388346</v>
       </c>
       <c r="D45">
-        <v>0.1390925546451404</v>
+        <v>-0.5429614218492913</v>
+      </c>
+      <c r="E45">
+        <v>38</v>
       </c>
       <c r="F45">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1162,13 +1285,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>-1.283358395455957</v>
+        <v>-2.130838692392776</v>
       </c>
       <c r="C46">
-        <v>3.902303721428468</v>
+        <v>-0.3671723398424814</v>
       </c>
       <c r="D46">
-        <v>1.362837278246512</v>
+        <v>-0.9585358823224961</v>
+      </c>
+      <c r="E46">
+        <v>38</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1179,13 +1305,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>-1.527506184024935</v>
+        <v>-1.847792781304218</v>
       </c>
       <c r="C47">
-        <v>4.596953199733432</v>
+        <v>0.1574202100907859</v>
       </c>
       <c r="D47">
-        <v>0.4214023917659122</v>
+        <v>-1.678185869583098</v>
+      </c>
+      <c r="E47">
+        <v>38</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1196,13 +1325,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>-2.086882603879694</v>
+        <v>-2.261984521815085</v>
       </c>
       <c r="C48">
-        <v>5.838142888005855</v>
+        <v>-0.4683148885691401</v>
       </c>
       <c r="D48">
-        <v>1.346543597552018</v>
+        <v>-1.829105233404302</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1213,13 +1345,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>-0.8610594557700156</v>
+        <v>-1.700920955930118</v>
       </c>
       <c r="C49">
-        <v>2.61488150494436</v>
+        <v>-0.3195280483993516</v>
       </c>
       <c r="D49">
-        <v>1.06147534649153</v>
+        <v>-0.5040608798342359</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1230,13 +1365,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>9.176047044913659</v>
+        <v>-1.297849374338659</v>
       </c>
       <c r="C50">
-        <v>4.561126231669016</v>
+        <v>-2.432680050401594</v>
       </c>
       <c r="D50">
-        <v>-1.090566191507003</v>
+        <v>-5.008207398636847</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -1247,13 +1385,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>-0.5705087094117596</v>
+        <v>-1.960949633832853</v>
       </c>
       <c r="C51">
-        <v>2.637987557385721</v>
+        <v>-0.4865772838354926</v>
       </c>
       <c r="D51">
-        <v>0.3237657022418258</v>
+        <v>-0.9969677696385435</v>
+      </c>
+      <c r="E51">
+        <v>38</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1264,13 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>-1.267200616454091</v>
+        <v>-2.248359584907612</v>
       </c>
       <c r="C52">
-        <v>4.234928998231449</v>
+        <v>-0.1008645612192413</v>
       </c>
       <c r="D52">
-        <v>0.6200615874307235</v>
+        <v>-1.142555531978295</v>
+      </c>
+      <c r="E52">
+        <v>38</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1281,16 +1425,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>-0.377275890451596</v>
+        <v>-2.277305316257514</v>
       </c>
       <c r="C53">
-        <v>2.145700802636283</v>
+        <v>-0.9844526771041507</v>
       </c>
       <c r="D53">
-        <v>0.5516984794626313</v>
+        <v>-0.8259308482477927</v>
+      </c>
+      <c r="E53">
+        <v>38</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1298,13 +1445,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>-1.145512941909149</v>
+        <v>-1.494521190945191</v>
       </c>
       <c r="C54">
-        <v>1.699073531200006</v>
+        <v>-0.05702671068181719</v>
       </c>
       <c r="D54">
-        <v>0.5724120709875676</v>
+        <v>-0.379831774581041</v>
+      </c>
+      <c r="E54">
+        <v>38</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1315,13 +1465,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>-0.08357441334616955</v>
+        <v>-0.0747651304580863</v>
       </c>
       <c r="C55">
-        <v>-0.3947013884393087</v>
+        <v>-0.9201719849838262</v>
       </c>
       <c r="D55">
-        <v>-0.2123492642225819</v>
+        <v>-0.4170999971474283</v>
+      </c>
+      <c r="E55">
+        <v>39</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -1332,16 +1485,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1177411935302664</v>
+        <v>-0.3308415785563328</v>
       </c>
       <c r="C56">
-        <v>-0.1224472461230819</v>
+        <v>-0.981847611717969</v>
       </c>
       <c r="D56">
-        <v>0.3965868834802379</v>
+        <v>-0.3822365989533306</v>
+      </c>
+      <c r="E56">
+        <v>39</v>
       </c>
       <c r="F56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1349,16 +1505,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.175427618563514</v>
+        <v>-0.1201227108404925</v>
       </c>
       <c r="C57">
-        <v>0.5604486111328485</v>
+        <v>-0.8986860107178304</v>
       </c>
       <c r="D57">
-        <v>-0.2477724312009446</v>
+        <v>-0.6537539127292856</v>
+      </c>
+      <c r="E57">
+        <v>39</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1366,16 +1525,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>-0.02974478111162848</v>
+        <v>-0.3341508301527719</v>
       </c>
       <c r="C58">
-        <v>0.686546281593021</v>
+        <v>-0.4552404820886947</v>
       </c>
       <c r="D58">
-        <v>-0.1178827771477796</v>
+        <v>-0.6871547021814387</v>
+      </c>
+      <c r="E58">
+        <v>39</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1383,16 +1545,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>-0.1789783353601631</v>
+        <v>-0.07269512952249091</v>
       </c>
       <c r="C59">
-        <v>0.6735810487295246</v>
+        <v>-0.5767167830643728</v>
       </c>
       <c r="D59">
-        <v>-0.6645427289358065</v>
+        <v>-0.7557853014246187</v>
+      </c>
+      <c r="E59">
+        <v>39</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1400,13 +1565,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>-0.2999076590188583</v>
+        <v>-0.6087813308042576</v>
       </c>
       <c r="C60">
-        <v>1.10642554971241</v>
+        <v>0.1849267298215476</v>
       </c>
       <c r="D60">
-        <v>-0.6084837894743197</v>
+        <v>-1.034058030737455</v>
+      </c>
+      <c r="E60">
+        <v>39</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -1417,16 +1585,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>-0.03653246575891078</v>
+        <v>-0.3067001835030057</v>
       </c>
       <c r="C61">
-        <v>0.4238437450685704</v>
+        <v>-0.7784742306530065</v>
       </c>
       <c r="D61">
-        <v>0.2057652145277366</v>
+        <v>-0.4202705006619188</v>
+      </c>
+      <c r="E61">
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1434,16 +1605,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.14240198450525</v>
+        <v>-0.1502620747643333</v>
       </c>
       <c r="C62">
-        <v>0.3025262117936506</v>
+        <v>-0.7228253104435277</v>
       </c>
       <c r="D62">
-        <v>-0.08065275295829166</v>
+        <v>-0.7889826448778063</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1451,13 +1625,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1426443412478666</v>
+        <v>-0.06949716331776368</v>
       </c>
       <c r="C63">
-        <v>-0.3454552720993231</v>
+        <v>-1.032601923778826</v>
       </c>
       <c r="D63">
-        <v>0.6235601585233556</v>
+        <v>0.1585831340735629</v>
+      </c>
+      <c r="E63">
+        <v>39</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -1468,16 +1645,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.2493466574538423</v>
+        <v>-0.03306231205108068</v>
       </c>
       <c r="C64">
-        <v>0.6636257023223198</v>
+        <v>-0.7482265154771922</v>
       </c>
       <c r="D64">
-        <v>0.009826466699768721</v>
+        <v>-0.464937589771961</v>
+      </c>
+      <c r="E64">
+        <v>39</v>
       </c>
       <c r="F64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1485,13 +1665,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.5558596726038889</v>
+        <v>0.3640220977196809</v>
       </c>
       <c r="C65">
-        <v>0.09790631127712612</v>
+        <v>-1.379499919460224</v>
       </c>
       <c r="D65">
-        <v>0.161641127330333</v>
+        <v>-0.4856270653022945</v>
+      </c>
+      <c r="E65">
+        <v>39</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -1502,16 +1685,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.3310065588386299</v>
+        <v>-0.6098199179005639</v>
       </c>
       <c r="C66">
-        <v>2.652051253786788</v>
+        <v>-0.6943362592513868</v>
       </c>
       <c r="D66">
-        <v>1.179337127698776</v>
+        <v>-0.6698730474893158</v>
+      </c>
+      <c r="E66">
+        <v>39</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1519,16 +1705,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.2179350680892733</v>
+        <v>-0.1701531043335898</v>
       </c>
       <c r="C67">
-        <v>0.2267729395207454</v>
+        <v>-0.7352829611323007</v>
       </c>
       <c r="D67">
-        <v>0.09222533979413827</v>
+        <v>-0.523124033687301</v>
+      </c>
+      <c r="E67">
+        <v>39</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1536,16 +1725,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>-0.1780735230157102</v>
+        <v>-0.3269520547695142</v>
       </c>
       <c r="C68">
-        <v>0.3594059323671343</v>
+        <v>-0.6371417253297357</v>
       </c>
       <c r="D68">
-        <v>-0.3764744470836626</v>
+        <v>-0.6173295654725973</v>
+      </c>
+      <c r="E68">
+        <v>39</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1553,13 +1745,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>-0.08238131582659114</v>
+        <v>-0.3528070954116626</v>
       </c>
       <c r="C69">
-        <v>0.286119257823797</v>
+        <v>-0.8341473336309865</v>
       </c>
       <c r="D69">
-        <v>0.4514197133308943</v>
+        <v>-0.3179167259909373</v>
+      </c>
+      <c r="E69">
+        <v>39</v>
       </c>
       <c r="F69">
         <v>2</v>
@@ -1570,13 +1765,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>-0.7936177548558352</v>
+        <v>-0.5947974609538917</v>
       </c>
       <c r="C70">
-        <v>1.109080923324908</v>
+        <v>-1.009940361317128</v>
       </c>
       <c r="D70">
-        <v>1.140748132312465</v>
+        <v>-0.55572012293759</v>
+      </c>
+      <c r="E70">
+        <v>39</v>
       </c>
       <c r="F70">
         <v>2</v>
@@ -1587,13 +1785,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>-0.255496544988018</v>
+        <v>-0.4983066460305993</v>
       </c>
       <c r="C71">
-        <v>0.9897561205359396</v>
+        <v>-0.3489149935178334</v>
       </c>
       <c r="D71">
-        <v>-0.1809075817048056</v>
+        <v>-0.9856184150818579</v>
+      </c>
+      <c r="E71">
+        <v>39</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -1604,16 +1805,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>-0.1461779087747175</v>
+        <v>-0.5242372287116221</v>
       </c>
       <c r="C72">
-        <v>1.611974155745088</v>
+        <v>-0.7985168827899062</v>
       </c>
       <c r="D72">
-        <v>0.7088992676735236</v>
+        <v>-0.4660752376054446</v>
+      </c>
+      <c r="E72">
+        <v>39</v>
       </c>
       <c r="F72">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1621,16 +1825,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.3027221664366264</v>
+        <v>0.3037752500253217</v>
       </c>
       <c r="C73">
-        <v>0.8844130399478166</v>
+        <v>-0.3582682116426644</v>
       </c>
       <c r="D73">
-        <v>-1.088858600985718</v>
+        <v>-1.256053361443074</v>
+      </c>
+      <c r="E73">
+        <v>39</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1638,16 +1845,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.6126746030874544</v>
+        <v>0.2370581018973166</v>
       </c>
       <c r="C74">
-        <v>1.097149424030218</v>
+        <v>-0.5498523001031429</v>
       </c>
       <c r="D74">
-        <v>-0.4548124297514599</v>
+        <v>-1.037198528957377</v>
+      </c>
+      <c r="E74">
+        <v>39</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -1655,16 +1865,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>-0.1794043706398634</v>
+        <v>-0.08869877146754934</v>
       </c>
       <c r="C75">
-        <v>0.03609092977694894</v>
+        <v>-0.620491836829688</v>
       </c>
       <c r="D75">
-        <v>-0.2579997515386538</v>
+        <v>-0.4700096651700667</v>
+      </c>
+      <c r="E75">
+        <v>39</v>
       </c>
       <c r="F75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -1672,16 +1885,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.187542614838748</v>
+        <v>0.2293897803130169</v>
       </c>
       <c r="C76">
-        <v>0.3049842741041162</v>
+        <v>-0.8225345918420836</v>
       </c>
       <c r="D76">
-        <v>-0.3840012631455113</v>
+        <v>-0.6385245556596866</v>
+      </c>
+      <c r="E76">
+        <v>39</v>
       </c>
       <c r="F76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -1689,16 +1905,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.3052478062335129</v>
+        <v>-0.1523687614845605</v>
       </c>
       <c r="C77">
-        <v>1.200891498006979</v>
+        <v>-0.3077008148031556</v>
       </c>
       <c r="D77">
-        <v>0.1783551014589778</v>
+        <v>-0.5369165239487567</v>
+      </c>
+      <c r="E77">
+        <v>39</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -1706,13 +1925,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.2603583014296817</v>
+        <v>0.04492745534611364</v>
       </c>
       <c r="C78">
-        <v>-0.04969131801658522</v>
+        <v>-0.8140803746454085</v>
       </c>
       <c r="D78">
-        <v>0.1993761238181707</v>
+        <v>-0.1465724690410783</v>
+      </c>
+      <c r="E78">
+        <v>39</v>
       </c>
       <c r="F78">
         <v>0</v>
@@ -1723,13 +1945,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.02280227740142249</v>
+        <v>-1.171164974189566</v>
       </c>
       <c r="C79">
-        <v>3.804227474813521</v>
+        <v>-0.5105473618447115</v>
       </c>
       <c r="D79">
-        <v>1.170185188881305</v>
+        <v>-0.951935635469469</v>
+      </c>
+      <c r="E79">
+        <v>39</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -1740,13 +1965,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>7.378730561132541</v>
+        <v>0.08978302905256097</v>
       </c>
       <c r="C80">
-        <v>6.439157834964705</v>
+        <v>-0.4949319659812946</v>
       </c>
       <c r="D80">
-        <v>-1.214053605336336</v>
+        <v>-4.80451881119631</v>
+      </c>
+      <c r="E80">
+        <v>39</v>
       </c>
       <c r="F80">
         <v>0</v>
@@ -1757,13 +1985,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>1.692625762170327</v>
+        <v>0.5927474572444635</v>
       </c>
       <c r="C81">
-        <v>1.133487574040861</v>
+        <v>-1.169305986019131</v>
       </c>
       <c r="D81">
-        <v>0.1147800378162193</v>
+        <v>-1.085667421069868</v>
+      </c>
+      <c r="E81">
+        <v>39</v>
       </c>
       <c r="F81">
         <v>0</v>
@@ -1774,16 +2005,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>-0.4780240507028592</v>
+        <v>-0.3880089591307895</v>
       </c>
       <c r="C82">
-        <v>0.9536830940796097</v>
+        <v>-0.5014029515612343</v>
       </c>
       <c r="D82">
-        <v>0.1391489255014312</v>
+        <v>-0.7977042440463721</v>
+      </c>
+      <c r="E82">
+        <v>39</v>
       </c>
       <c r="F82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -1791,13 +2025,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>-0.375418440975352</v>
+        <v>-0.3479657889297072</v>
       </c>
       <c r="C83">
-        <v>0.7983545143157427</v>
+        <v>-0.2347354685280404</v>
       </c>
       <c r="D83">
-        <v>-0.2762404996939112</v>
+        <v>-0.4364854760678533</v>
+      </c>
+      <c r="E83">
+        <v>39</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -1808,16 +2045,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.009566635415915625</v>
+        <v>-0.1242095904914834</v>
       </c>
       <c r="C84">
-        <v>0.9009897602724765</v>
+        <v>-0.4604467833813187</v>
       </c>
       <c r="D84">
-        <v>0.02617815635582965</v>
+        <v>-0.4708325345486457</v>
+      </c>
+      <c r="E84">
+        <v>39</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -1825,16 +2065,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.19784361405629</v>
+        <v>0.04185550983022446</v>
       </c>
       <c r="C85">
-        <v>0.2587382425103787</v>
+        <v>-0.5421020651727911</v>
       </c>
       <c r="D85">
-        <v>0.03004549319280259</v>
+        <v>-0.2529166663605947</v>
+      </c>
+      <c r="E85">
+        <v>39</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -1842,16 +2085,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>-0.2930783244664754</v>
+        <v>-0.2687230533598099</v>
       </c>
       <c r="C86">
-        <v>0.4176684900521551</v>
+        <v>-0.4763649145905585</v>
       </c>
       <c r="D86">
-        <v>-0.06176815425031634</v>
+        <v>-0.3496468440590409</v>
+      </c>
+      <c r="E86">
+        <v>39</v>
       </c>
       <c r="F86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -1859,16 +2105,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>-0.6649648956767344</v>
+        <v>-0.3214055607323376</v>
       </c>
       <c r="C87">
-        <v>0.5795481147494507</v>
+        <v>-0.2934699998492948</v>
       </c>
       <c r="D87">
-        <v>0.6105287880717182</v>
+        <v>-0.3360565791092471</v>
+      </c>
+      <c r="E87">
+        <v>39</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -1876,13 +2125,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.01620496754934253</v>
+        <v>0.6027468622914705</v>
       </c>
       <c r="C88">
-        <v>-0.3882535122532165</v>
+        <v>-1.358246179661553</v>
       </c>
       <c r="D88">
-        <v>-0.1373704555437343</v>
+        <v>-0.3555115053290843</v>
+      </c>
+      <c r="E88">
+        <v>39</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -1893,16 +2145,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>-0.04718453686128887</v>
+        <v>-0.1300580366725375</v>
       </c>
       <c r="C89">
-        <v>0.479787285601701</v>
+        <v>-0.4577476181299015</v>
       </c>
       <c r="D89">
-        <v>-0.2275055508905745</v>
+        <v>-0.4382389289682804</v>
+      </c>
+      <c r="E89">
+        <v>39</v>
       </c>
       <c r="F89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -1910,16 +2165,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>-0.354054734902286</v>
+        <v>-0.2402863004630891</v>
       </c>
       <c r="C90">
-        <v>0.6529377746290669</v>
+        <v>-0.2927614897531948</v>
       </c>
       <c r="D90">
-        <v>-0.4321848771123833</v>
+        <v>-0.4993979216669026</v>
+      </c>
+      <c r="E90">
+        <v>39</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -1927,13 +2185,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>-0.7804159994775431</v>
+        <v>-0.6119901120727623</v>
       </c>
       <c r="C91">
-        <v>0.9919882689623707</v>
+        <v>0.0849781659719121</v>
       </c>
       <c r="D91">
-        <v>-0.5885163872895747</v>
+        <v>-0.5385818958636281</v>
+      </c>
+      <c r="E91">
+        <v>39</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -1944,13 +2205,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>-0.1072624634077297</v>
+        <v>-0.8687251928593165</v>
       </c>
       <c r="C92">
-        <v>2.060913609374912</v>
+        <v>-0.03845920685546556</v>
       </c>
       <c r="D92">
-        <v>0.3319425336908062</v>
+        <v>-0.8664252021676671</v>
+      </c>
+      <c r="E92">
+        <v>40</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -1961,13 +2225,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>-0.8874340426063129</v>
+        <v>-1.032996444107995</v>
       </c>
       <c r="C93">
-        <v>1.892128804190108</v>
+        <v>0.1600660518540968</v>
       </c>
       <c r="D93">
-        <v>0.3492525686434865</v>
+        <v>-0.5248672805822816</v>
+      </c>
+      <c r="E93">
+        <v>40</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -1978,13 +2245,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>-1.418268992690959</v>
+        <v>-1.057233182748623</v>
       </c>
       <c r="C94">
-        <v>-0.1372001580216158</v>
+        <v>-0.1939057729072416</v>
       </c>
       <c r="D94">
-        <v>0.2205257012417451</v>
+        <v>0.142966311322711</v>
+      </c>
+      <c r="E94">
+        <v>40</v>
       </c>
       <c r="F94">
         <v>2</v>
@@ -1995,13 +2265,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>8.764695121438702</v>
+        <v>0.9441381847847403</v>
       </c>
       <c r="C95">
-        <v>7.800459634008883</v>
+        <v>-0.4104087683880261</v>
       </c>
       <c r="D95">
-        <v>0.5221758776844824</v>
+        <v>-4.711051565445221</v>
+      </c>
+      <c r="E95">
+        <v>40</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2012,13 +2285,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>-0.9570555462968152</v>
+        <v>-2.316419209208841</v>
       </c>
       <c r="C96">
-        <v>4.927474030832506</v>
+        <v>0.2142464678600726</v>
       </c>
       <c r="D96">
-        <v>1.184766885508644</v>
+        <v>-1.217609370420391</v>
+      </c>
+      <c r="E96">
+        <v>40</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -2029,16 +2305,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7.014390762422582</v>
+        <v>-0.870976108913972</v>
       </c>
       <c r="C97">
-        <v>7.921871808216645</v>
+        <v>-1.017506078455895</v>
       </c>
       <c r="D97">
-        <v>2.516562118245754</v>
+        <v>-3.274529222433853</v>
+      </c>
+      <c r="E97">
+        <v>40</v>
       </c>
       <c r="F97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2046,16 +2325,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.3983442963212731</v>
+        <v>-3.438233488279034</v>
       </c>
       <c r="C98">
-        <v>5.179450642638958</v>
+        <v>-1.013509193738989</v>
       </c>
       <c r="D98">
-        <v>2.647449054089325</v>
+        <v>-0.671365046325538</v>
+      </c>
+      <c r="E98">
+        <v>40</v>
       </c>
       <c r="F98">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2063,13 +2345,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>-0.04242398712146844</v>
+        <v>-1.998164021266956</v>
       </c>
       <c r="C99">
-        <v>5.484925027396928</v>
+        <v>-0.1172705917042333</v>
       </c>
       <c r="D99">
-        <v>2.052548252284965</v>
+        <v>-1.082136784442811</v>
+      </c>
+      <c r="E99">
+        <v>40</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -2080,13 +2365,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>-0.5353740135030702</v>
+        <v>-1.843215236789879</v>
       </c>
       <c r="C100">
-        <v>4.431351674756762</v>
+        <v>-0.6853710117851183</v>
       </c>
       <c r="D100">
-        <v>2.360752855975792</v>
+        <v>-1.094775521280289</v>
+      </c>
+      <c r="E100">
+        <v>40</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -2097,16 +2385,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7.148195550228249</v>
+        <v>-0.4612019067027813</v>
       </c>
       <c r="C101">
-        <v>7.759020095142274</v>
+        <v>-0.7684349078241514</v>
       </c>
       <c r="D101">
-        <v>3.56641506715021</v>
+        <v>-2.469278909357065</v>
+      </c>
+      <c r="E101">
+        <v>40</v>
       </c>
       <c r="F101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2114,13 +2405,16 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>-1.395679853188271</v>
+        <v>-1.018212656298956</v>
       </c>
       <c r="C102">
-        <v>0.004891221130107981</v>
+        <v>-0.08260451067399055</v>
       </c>
       <c r="D102">
-        <v>0.0533022750695239</v>
+        <v>-0.07299582289436168</v>
+      </c>
+      <c r="E102">
+        <v>40</v>
       </c>
       <c r="F102">
         <v>2</v>
@@ -2131,16 +2425,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>11.02611194225357</v>
+        <v>0.7961159832851215</v>
       </c>
       <c r="C103">
-        <v>11.95143984193259</v>
+        <v>-1.170726833843325</v>
       </c>
       <c r="D103">
-        <v>1.967326874510308</v>
+        <v>-6.423903180622343</v>
+      </c>
+      <c r="E103">
+        <v>40</v>
       </c>
       <c r="F103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2148,13 +2445,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>10.57487349778663</v>
+        <v>0.933404213244647</v>
       </c>
       <c r="C104">
-        <v>9.25903378579957</v>
+        <v>-1.44721817980264</v>
       </c>
       <c r="D104">
-        <v>2.010512835368654</v>
+        <v>-5.579193122268014</v>
+      </c>
+      <c r="E104">
+        <v>40</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2165,13 +2465,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>-2.264480235480796</v>
+        <v>-7.209564243414563</v>
       </c>
       <c r="C105">
-        <v>-1.551673446953858</v>
+        <v>-4.411017999252085</v>
       </c>
       <c r="D105">
-        <v>2.030189730464316</v>
+        <v>0.2283124833254392</v>
+      </c>
+      <c r="E105">
+        <v>40</v>
       </c>
       <c r="F105">
         <v>2</v>
@@ -2182,13 +2485,16 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>-1.179810137100672</v>
+        <v>-6.182725953281443</v>
       </c>
       <c r="C106">
-        <v>0.4162618777788236</v>
+        <v>-3.849997720633237</v>
       </c>
       <c r="D106">
-        <v>1.45238391250049</v>
+        <v>-1.283943540696642</v>
+      </c>
+      <c r="E106">
+        <v>40</v>
       </c>
       <c r="F106">
         <v>2</v>
@@ -2199,13 +2505,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>3.053721931419295</v>
+        <v>-8.217970010400281</v>
       </c>
       <c r="C107">
-        <v>3.701563449046117</v>
+        <v>-6.945884314136716</v>
       </c>
       <c r="D107">
-        <v>4.789361442382887</v>
+        <v>-2.39593363577985</v>
+      </c>
+      <c r="E107">
+        <v>40</v>
       </c>
       <c r="F107">
         <v>2</v>
@@ -2216,13 +2525,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.01188103449908562</v>
+        <v>-1.792240420082492</v>
       </c>
       <c r="C108">
-        <v>4.266651226747292</v>
+        <v>-0.3461203208140223</v>
       </c>
       <c r="D108">
-        <v>1.654538293572037</v>
+        <v>-0.9679875353722992</v>
+      </c>
+      <c r="E108">
+        <v>40</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -2233,13 +2545,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.2630625964876732</v>
+        <v>-1.435074129836402</v>
       </c>
       <c r="C109">
-        <v>4.265429371819977</v>
+        <v>-0.5673447919558851</v>
       </c>
       <c r="D109">
-        <v>2.200754096189826</v>
+        <v>-0.971962553280816</v>
+      </c>
+      <c r="E109">
+        <v>40</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -2250,13 +2565,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>-0.8929627542940186</v>
+        <v>-6.655280792033573</v>
       </c>
       <c r="C110">
-        <v>1.321542602356321</v>
+        <v>-4.739234386511563</v>
       </c>
       <c r="D110">
-        <v>3.043347210861651</v>
+        <v>-1.063752819344776</v>
+      </c>
+      <c r="E110">
+        <v>40</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -2267,13 +2585,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>-1.954585736301221</v>
+        <v>-6.898644469609001</v>
       </c>
       <c r="C111">
-        <v>-1.175318453514353</v>
+        <v>-4.121400747937114</v>
       </c>
       <c r="D111">
-        <v>3.016650983968659</v>
+        <v>0.4797502886151565</v>
+      </c>
+      <c r="E111">
+        <v>40</v>
       </c>
       <c r="F111">
         <v>2</v>
@@ -2284,13 +2605,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>-3.732078955719633</v>
+        <v>-8.338271874715437</v>
       </c>
       <c r="C112">
-        <v>-3.832269828448025</v>
+        <v>-5.021633852867772</v>
       </c>
       <c r="D112">
-        <v>1.018862245784925</v>
+        <v>0.1657438792144206</v>
+      </c>
+      <c r="E112">
+        <v>40</v>
       </c>
       <c r="F112">
         <v>2</v>
@@ -2301,13 +2625,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>-1.501014820054917</v>
+        <v>-1.282650268165997</v>
       </c>
       <c r="C113">
-        <v>0.4152947861828982</v>
+        <v>-0.1423359410130582</v>
       </c>
       <c r="D113">
-        <v>0.4457427691903219</v>
+        <v>0.4028317321164722</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
       </c>
       <c r="F113">
         <v>2</v>
@@ -2318,13 +2645,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>1.113581210204128</v>
+        <v>-7.455525668810981</v>
       </c>
       <c r="C114">
-        <v>3.08561185138165</v>
+        <v>-5.492934720961513</v>
       </c>
       <c r="D114">
-        <v>4.459699903805793</v>
+        <v>-1.637090753791314</v>
+      </c>
+      <c r="E114">
+        <v>40</v>
       </c>
       <c r="F114">
         <v>2</v>
@@ -2335,13 +2665,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>-0.5833900425874514</v>
+        <v>-0.790519771402272</v>
       </c>
       <c r="C115">
-        <v>-0.6367931500039052</v>
+        <v>-0.4325759896633711</v>
       </c>
       <c r="D115">
-        <v>0.01064461075982925</v>
+        <v>-0.3347734552143078</v>
+      </c>
+      <c r="E115">
+        <v>40</v>
       </c>
       <c r="F115">
         <v>2</v>
@@ -2352,13 +2685,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>-0.7389720333034622</v>
+        <v>-0.7965803464162955</v>
       </c>
       <c r="C116">
-        <v>0.4649417401314809</v>
+        <v>0.006765234746810012</v>
       </c>
       <c r="D116">
-        <v>-0.5117665839565398</v>
+        <v>-0.4597103341203759</v>
+      </c>
+      <c r="E116">
+        <v>40</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -2369,13 +2705,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>-0.4202762317169919</v>
+        <v>-1.791226415900976</v>
       </c>
       <c r="C117">
-        <v>4.034572845576748</v>
+        <v>-0.1372574824055164</v>
       </c>
       <c r="D117">
-        <v>1.576170373791693</v>
+        <v>-0.631681533770729</v>
+      </c>
+      <c r="E117">
+        <v>40</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -2386,16 +2725,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>1.819573654596799</v>
+        <v>-4.766776136293311</v>
       </c>
       <c r="C118">
-        <v>3.531349143393331</v>
+        <v>-3.601797288827526</v>
       </c>
       <c r="D118">
-        <v>3.354225812659724</v>
+        <v>-1.291203071988501</v>
+      </c>
+      <c r="E118">
+        <v>40</v>
       </c>
       <c r="F118">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2403,16 +2745,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>-0.02623553189129724</v>
+        <v>-7.491320739245753</v>
       </c>
       <c r="C119">
-        <v>3.763649832207207</v>
+        <v>-4.786942589700274</v>
       </c>
       <c r="D119">
-        <v>3.350014842173497</v>
+        <v>-1.606476039693181</v>
+      </c>
+      <c r="E119">
+        <v>40</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2420,13 +2765,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.6076007783517108</v>
+        <v>-6.083212693756159</v>
       </c>
       <c r="C120">
-        <v>-0.5802215306705625</v>
+        <v>-3.764813907450566</v>
       </c>
       <c r="D120">
-        <v>0.9147571294547913</v>
+        <v>-0.6731724816670984</v>
+      </c>
+      <c r="E120">
+        <v>40</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -2437,16 +2785,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>9.307330102979822</v>
+        <v>-4.974772192654149</v>
       </c>
       <c r="C121">
-        <v>4.396397548833587</v>
+        <v>-4.711681437284652</v>
       </c>
       <c r="D121">
-        <v>0.07321662172847943</v>
+        <v>-4.708995572926513</v>
+      </c>
+      <c r="E121">
+        <v>40</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2454,13 +2805,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>11.70919506473862</v>
+        <v>1.843513232590335</v>
       </c>
       <c r="C122">
-        <v>11.04583475513405</v>
+        <v>-0.8765963389851409</v>
       </c>
       <c r="D122">
-        <v>1.291459954596519</v>
+        <v>-6.823995445106688</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -2471,13 +2825,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.3640446990867736</v>
+        <v>-1.455966213767736</v>
       </c>
       <c r="C123">
-        <v>4.313075847964904</v>
+        <v>-0.3581304850215389</v>
       </c>
       <c r="D123">
-        <v>2.004237435932452</v>
+        <v>-0.9286288032854214</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -2488,13 +2845,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>-0.517756841486283</v>
+        <v>-2.340393433107418</v>
       </c>
       <c r="C124">
-        <v>6.468199581602368</v>
+        <v>-0.6343630642829244</v>
       </c>
       <c r="D124">
-        <v>2.937255470792913</v>
+        <v>-0.7476850738630255</v>
+      </c>
+      <c r="E124">
+        <v>41</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -2505,13 +2865,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>4.640152376363539</v>
+        <v>-1.372677979938255</v>
       </c>
       <c r="C125">
-        <v>6.122634342568826</v>
+        <v>-0.3048169822409238</v>
       </c>
       <c r="D125">
-        <v>0.7451291009960367</v>
+        <v>-3.041216615367775</v>
+      </c>
+      <c r="E125">
+        <v>41</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -2522,13 +2885,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>-1.50465581297261</v>
+        <v>-2.081483044558131</v>
       </c>
       <c r="C126">
-        <v>1.989306610903435</v>
+        <v>0.2907053312212315</v>
       </c>
       <c r="D126">
-        <v>1.618753912488613</v>
+        <v>0.1313513443360722</v>
+      </c>
+      <c r="E126">
+        <v>41</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -2539,16 +2905,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>-1.122822058317323</v>
+        <v>-1.582075403904142</v>
       </c>
       <c r="C127">
-        <v>1.383893110078288</v>
+        <v>-0.2502044751032116</v>
       </c>
       <c r="D127">
-        <v>0.8762372536481754</v>
+        <v>-0.03228104013259447</v>
+      </c>
+      <c r="E127">
+        <v>41</v>
       </c>
       <c r="F127">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -2556,16 +2925,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>-1.476656132090896</v>
+        <v>-2.731380422632828</v>
       </c>
       <c r="C128">
-        <v>4.616830249895699</v>
+        <v>-0.2422043385402289</v>
       </c>
       <c r="D128">
-        <v>2.66489441398222</v>
+        <v>0.03258646387198649</v>
+      </c>
+      <c r="E128">
+        <v>41</v>
       </c>
       <c r="F128">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -2573,16 +2945,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>-1.553924993920871</v>
+        <v>-1.847906335857668</v>
       </c>
       <c r="C129">
-        <v>1.720568885370673</v>
+        <v>0.02397088822827664</v>
       </c>
       <c r="D129">
-        <v>1.456166579358114</v>
+        <v>0.1496742934840072</v>
+      </c>
+      <c r="E129">
+        <v>41</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -2590,13 +2965,16 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>-1.508477018560727</v>
+        <v>-1.66945244247563</v>
       </c>
       <c r="C130">
-        <v>0.9628959435937579</v>
+        <v>0.6307952192501166</v>
       </c>
       <c r="D130">
-        <v>0.3077092983860049</v>
+        <v>-0.2613091255078813</v>
+      </c>
+      <c r="E130">
+        <v>41</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -2607,13 +2985,16 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>-0.834758112231626</v>
+        <v>-0.6597942784362194</v>
       </c>
       <c r="C131">
-        <v>0.2217774525655846</v>
+        <v>-0.009244480836335445</v>
       </c>
       <c r="D131">
-        <v>-0.2120737407896437</v>
+        <v>-0.5045082078671581</v>
+      </c>
+      <c r="E131">
+        <v>41</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -2624,13 +3005,16 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>-0.9798463045988791</v>
+        <v>-2.071334580779228</v>
       </c>
       <c r="C132">
-        <v>4.451073115986854</v>
+        <v>0.407777657609339</v>
       </c>
       <c r="D132">
-        <v>1.840707422911914</v>
+        <v>-0.5045720468616292</v>
+      </c>
+      <c r="E132">
+        <v>41</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -2641,13 +3025,16 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>-1.429754134336425</v>
+        <v>-1.675508615248445</v>
       </c>
       <c r="C133">
-        <v>2.648551953766209</v>
+        <v>0.5707418233223416</v>
       </c>
       <c r="D133">
-        <v>0.3133203575153293</v>
+        <v>-0.5171842538275837</v>
+      </c>
+      <c r="E133">
+        <v>41</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -2658,13 +3045,16 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>-1.193283431033472</v>
+        <v>-1.355918339558607</v>
       </c>
       <c r="C134">
-        <v>1.36474215799559</v>
+        <v>0.6111215112960201</v>
       </c>
       <c r="D134">
-        <v>-0.2369737924204979</v>
+        <v>-0.6592357372520044</v>
+      </c>
+      <c r="E134">
+        <v>41</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -2675,16 +3065,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>5.028006470152055</v>
+        <v>-0.7847490189739952</v>
       </c>
       <c r="C135">
-        <v>4.204250284294694</v>
+        <v>-0.7703170987794191</v>
       </c>
       <c r="D135">
-        <v>0.319778773946865</v>
+        <v>-3.112238633115131</v>
+      </c>
+      <c r="E135">
+        <v>41</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -2692,13 +3085,16 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>8.313012177996008</v>
+        <v>-0.08612642121130953</v>
       </c>
       <c r="C136">
-        <v>5.126293298117501</v>
+        <v>-1.008374613665825</v>
       </c>
       <c r="D136">
-        <v>-0.8448033717175066</v>
+        <v>-4.849644316364476</v>
+      </c>
+      <c r="E136">
+        <v>41</v>
       </c>
       <c r="F136">
         <v>0</v>
@@ -2709,13 +3105,16 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>10.3775400003611</v>
+        <v>0.934598854700037</v>
       </c>
       <c r="C137">
-        <v>7.2797523019069</v>
+        <v>-1.37075407444736</v>
       </c>
       <c r="D137">
-        <v>-0.1745849540256116</v>
+        <v>-5.884187440253131</v>
+      </c>
+      <c r="E137">
+        <v>41</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -2726,13 +3125,16 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>-1.113332452664956</v>
+        <v>-1.104911875859304</v>
       </c>
       <c r="C138">
-        <v>1.864246776691648</v>
+        <v>-0.2979262631798573</v>
       </c>
       <c r="D138">
-        <v>0.7941013087395709</v>
+        <v>-0.5818341845703449</v>
+      </c>
+      <c r="E138">
+        <v>41</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -2743,13 +3145,16 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>11.56928893446581</v>
+        <v>1.170478456771302</v>
       </c>
       <c r="C139">
-        <v>9.871675143482538</v>
+        <v>-0.4573419175039569</v>
       </c>
       <c r="D139">
-        <v>-0.816865431368201</v>
+        <v>-7.094527819403302</v>
+      </c>
+      <c r="E139">
+        <v>41</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -2760,13 +3165,16 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>-1.082075551477625</v>
+        <v>-2.724731334991907</v>
       </c>
       <c r="C140">
-        <v>6.155986318549644</v>
+        <v>0.261434423371521</v>
       </c>
       <c r="D140">
-        <v>3.009289501766041</v>
+        <v>-0.2804329610813113</v>
+      </c>
+      <c r="E140">
+        <v>41</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -2777,13 +3185,16 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>-0.6118899131355178</v>
+        <v>-0.7277953558114021</v>
       </c>
       <c r="C141">
-        <v>0.868001104084023</v>
+        <v>0.4093184973712452</v>
       </c>
       <c r="D141">
-        <v>-0.328289894304404</v>
+        <v>-0.521688173628635</v>
+      </c>
+      <c r="E141">
+        <v>41</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -2794,13 +3205,16 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>-0.9308957978451926</v>
+        <v>-1.914349212863608</v>
       </c>
       <c r="C142">
-        <v>3.106962458895015</v>
+        <v>0.007795217452592262</v>
       </c>
       <c r="D142">
-        <v>1.288577279341488</v>
+        <v>-0.5916771651325683</v>
+      </c>
+      <c r="E142">
+        <v>41</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -2811,13 +3225,16 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>-1.320731116084767</v>
+        <v>-3.714578625884054</v>
       </c>
       <c r="C143">
-        <v>8.882891797409885</v>
+        <v>0.07089099546445521</v>
       </c>
       <c r="D143">
-        <v>4.811742318332638</v>
+        <v>-0.303959552385877</v>
+      </c>
+      <c r="E143">
+        <v>41</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -2828,13 +3245,16 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>-0.4111569715657333</v>
+        <v>-1.804193664530612</v>
       </c>
       <c r="C144">
-        <v>3.839314879352903</v>
+        <v>0.3681360057305352</v>
       </c>
       <c r="D144">
-        <v>2.230134550243777</v>
+        <v>-0.1561641014919505</v>
+      </c>
+      <c r="E144">
+        <v>41</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -2845,13 +3265,16 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>-0.8025101369308014</v>
+        <v>-1.980870241021277</v>
       </c>
       <c r="C145">
-        <v>4.821578864570771</v>
+        <v>0.1662069763669636</v>
       </c>
       <c r="D145">
-        <v>1.689532950454449</v>
+        <v>-0.4901714449184101</v>
+      </c>
+      <c r="E145">
+        <v>41</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -2862,13 +3285,16 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>5.324826731413241</v>
+        <v>-1.34006946881011</v>
       </c>
       <c r="C146">
-        <v>7.432820245336405</v>
+        <v>-0.2294086298313843</v>
       </c>
       <c r="D146">
-        <v>1.617064746732663</v>
+        <v>-2.861564124793542</v>
+      </c>
+      <c r="E146">
+        <v>41</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -2879,13 +3305,16 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>-0.9881738132338148</v>
+        <v>-1.574662831008776</v>
       </c>
       <c r="C147">
-        <v>1.902024401809762</v>
+        <v>0.1130875878165216</v>
       </c>
       <c r="D147">
-        <v>0.795708167063706</v>
+        <v>-0.3334254853319669</v>
+      </c>
+      <c r="E147">
+        <v>41</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -2896,13 +3325,16 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>10.93175317453033</v>
+        <v>1.361319528428767</v>
       </c>
       <c r="C148">
-        <v>8.299540298780171</v>
+        <v>-0.5794567032944803</v>
       </c>
       <c r="D148">
-        <v>-1.013737097145281</v>
+        <v>-6.317040521471867</v>
+      </c>
+      <c r="E148">
+        <v>41</v>
       </c>
       <c r="F148">
         <v>0</v>
@@ -2913,13 +3345,16 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>-0.7189238741169417</v>
+        <v>-1.888586421570537</v>
       </c>
       <c r="C149">
-        <v>4.411590954379018</v>
+        <v>0.2818821796366251</v>
       </c>
       <c r="D149">
-        <v>1.978694682814663</v>
+        <v>-0.4354231708424453</v>
+      </c>
+      <c r="E149">
+        <v>41</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -2930,13 +3365,16 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>-0.01577714022152477</v>
+        <v>-3.026879983157804</v>
       </c>
       <c r="C150">
-        <v>8.815417996930195</v>
+        <v>-0.2570903970136985</v>
       </c>
       <c r="D150">
-        <v>4.283782396815159</v>
+        <v>-0.6813152647775295</v>
+      </c>
+      <c r="E150">
+        <v>41</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -2947,13 +3385,16 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>5.47768274432901</v>
+        <v>-0.577158857764665</v>
       </c>
       <c r="C151">
-        <v>4.05319278031312</v>
+        <v>-0.8522025628682416</v>
       </c>
       <c r="D151">
-        <v>-0.2523016450149552</v>
+        <v>-3.317022501953028</v>
+      </c>
+      <c r="E151">
+        <v>41</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -2964,13 +3405,16 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>1.936827671647499</v>
+        <v>-1.539559622357684</v>
       </c>
       <c r="C152">
-        <v>4.443740631713514</v>
+        <v>-0.02852403521610569</v>
       </c>
       <c r="D152">
-        <v>0.08638566812940707</v>
+        <v>-2.303013092854884</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -2981,13 +3425,16 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>-0.6289706589991431</v>
+        <v>-0.770564640651066</v>
       </c>
       <c r="C153">
-        <v>1.269600762748358</v>
+        <v>-0.3558477229889995</v>
       </c>
       <c r="D153">
-        <v>0.1386717813245342</v>
+        <v>-0.5916996076863725</v>
+      </c>
+      <c r="E153">
+        <v>41</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -2998,13 +3445,16 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>-1.076008609185359</v>
+        <v>-1.924357822929455</v>
       </c>
       <c r="C154">
-        <v>3.434704499333867</v>
+        <v>0.05449365500087799</v>
       </c>
       <c r="D154">
-        <v>1.461495200336207</v>
+        <v>-0.2058832244149633</v>
+      </c>
+      <c r="E154">
+        <v>41</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -3015,13 +3465,16 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>9.211071137319376</v>
+        <v>1.500999584071596</v>
       </c>
       <c r="C155">
-        <v>6.489949857788133</v>
+        <v>-1.520352562790261</v>
       </c>
       <c r="D155">
-        <v>-1.438944951221138</v>
+        <v>-5.954175373688731</v>
+      </c>
+      <c r="E155">
+        <v>42</v>
       </c>
       <c r="F155">
         <v>0</v>
@@ -3032,16 +3485,19 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.796169556137766</v>
+        <v>0.03170932802878212</v>
       </c>
       <c r="C156">
-        <v>1.440273700419235</v>
+        <v>-0.8268320374009953</v>
       </c>
       <c r="D156">
-        <v>-0.6712745580354954</v>
+        <v>-1.524435614313339</v>
+      </c>
+      <c r="E156">
+        <v>42</v>
       </c>
       <c r="F156">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -3049,16 +3505,19 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.2425371619659757</v>
+        <v>-0.3297564157113372</v>
       </c>
       <c r="C157">
-        <v>1.793058507447963</v>
+        <v>-0.4911267363766895</v>
       </c>
       <c r="D157">
-        <v>-0.2185538064557457</v>
+        <v>-1.272850194419038</v>
+      </c>
+      <c r="E157">
+        <v>42</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -3066,16 +3525,19 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>-0.4672138739281764</v>
+        <v>-0.4075022114774177</v>
       </c>
       <c r="C158">
-        <v>-0.260575488248066</v>
+        <v>-0.5307958494057062</v>
       </c>
       <c r="D158">
-        <v>-0.10967705164805</v>
+        <v>-0.5271392132073301</v>
+      </c>
+      <c r="E158">
+        <v>42</v>
       </c>
       <c r="F158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -3083,16 +3545,19 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.3625397572371294</v>
+        <v>-0.2046650454695013</v>
       </c>
       <c r="C159">
-        <v>1.542683706087086</v>
+        <v>-0.3921134109995555</v>
       </c>
       <c r="D159">
-        <v>-0.09467528047128304</v>
+        <v>-0.9654949518662934</v>
+      </c>
+      <c r="E159">
+        <v>42</v>
       </c>
       <c r="F159">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -3100,16 +3565,19 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>1.01317002001553</v>
+        <v>0.07366736671923912</v>
       </c>
       <c r="C160">
-        <v>1.108277638907728</v>
+        <v>-0.3903018815603191</v>
       </c>
       <c r="D160">
-        <v>-1.046878602168902</v>
+        <v>-1.572317750101192</v>
+      </c>
+      <c r="E160">
+        <v>42</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -3117,16 +3585,19 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.2676365310912621</v>
+        <v>-0.2670512092544102</v>
       </c>
       <c r="C161">
-        <v>1.104864130479747</v>
+        <v>-0.4776044759903523</v>
       </c>
       <c r="D161">
-        <v>0.1034014657510068</v>
+        <v>-0.6711846005966159</v>
+      </c>
+      <c r="E161">
+        <v>42</v>
       </c>
       <c r="F161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -3134,16 +3605,19 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.2291054246967066</v>
+        <v>-0.2832720882847194</v>
       </c>
       <c r="C162">
-        <v>1.175289732943085</v>
+        <v>-0.5177011038183469</v>
       </c>
       <c r="D162">
-        <v>0.006902952280893992</v>
+        <v>-0.8789308760935154</v>
+      </c>
+      <c r="E162">
+        <v>42</v>
       </c>
       <c r="F162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -3151,16 +3625,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.7595642016455599</v>
+        <v>0.0893838412241883</v>
       </c>
       <c r="C163">
-        <v>1.296885741972425</v>
+        <v>-0.6085116831213105</v>
       </c>
       <c r="D163">
-        <v>-0.4818788628377215</v>
+        <v>-1.322938528910655</v>
+      </c>
+      <c r="E163">
+        <v>42</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -3168,13 +3645,16 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.2240841821721615</v>
+        <v>0.3862502865156181</v>
       </c>
       <c r="C164">
-        <v>0.1221223202951623</v>
+        <v>-1.543496984912152</v>
       </c>
       <c r="D164">
-        <v>0.052617346995253</v>
+        <v>-0.8777739704133118</v>
+      </c>
+      <c r="E164">
+        <v>42</v>
       </c>
       <c r="F164">
         <v>0</v>
@@ -3185,16 +3665,19 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.6378307840171722</v>
+        <v>-0.2757700221146943</v>
       </c>
       <c r="C165">
-        <v>2.432743994656458</v>
+        <v>-0.5979790731554756</v>
       </c>
       <c r="D165">
-        <v>0.1281187700571906</v>
+        <v>-1.281256284940352</v>
+      </c>
+      <c r="E165">
+        <v>42</v>
       </c>
       <c r="F165">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -3202,13 +3685,16 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>1.376166217449567</v>
+        <v>0.763578903412506</v>
       </c>
       <c r="C166">
-        <v>0.8528950889092843</v>
+        <v>-1.376072779303403</v>
       </c>
       <c r="D166">
-        <v>-0.4873331359872143</v>
+        <v>-1.516682211586901</v>
+      </c>
+      <c r="E166">
+        <v>42</v>
       </c>
       <c r="F166">
         <v>0</v>
@@ -3219,13 +3705,16 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>-0.1110825764114893</v>
+        <v>-0.5934093565782417</v>
       </c>
       <c r="C167">
-        <v>1.492460455362626</v>
+        <v>-0.1251783666733768</v>
       </c>
       <c r="D167">
-        <v>0.2536159143176467</v>
+        <v>-0.6292985292431755</v>
+      </c>
+      <c r="E167">
+        <v>42</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -3236,16 +3725,19 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.216341757601928</v>
+        <v>0.09229948234363405</v>
       </c>
       <c r="C168">
-        <v>0.5086552328809077</v>
+        <v>-0.7149493851039747</v>
       </c>
       <c r="D168">
-        <v>-0.2247920836869123</v>
+        <v>-1.11652685056503</v>
+      </c>
+      <c r="E168">
+        <v>42</v>
       </c>
       <c r="F168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -3253,13 +3745,16 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.6904098186832415</v>
+        <v>0.3008264870764124</v>
       </c>
       <c r="C169">
-        <v>0.5160685547746885</v>
+        <v>-0.6084861088159227</v>
       </c>
       <c r="D169">
-        <v>-1.107022472316304</v>
+        <v>-1.583490138038659</v>
+      </c>
+      <c r="E169">
+        <v>42</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -3270,16 +3765,19 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.6905037997423515</v>
+        <v>-0.003308442045232507</v>
       </c>
       <c r="C170">
-        <v>0.715901735993334</v>
+        <v>-0.7825735727091007</v>
       </c>
       <c r="D170">
-        <v>-0.6338002763786458</v>
+        <v>-1.131518870258287</v>
+      </c>
+      <c r="E170">
+        <v>42</v>
       </c>
       <c r="F170">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -3287,16 +3785,19 @@
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.3814945592618577</v>
+        <v>-0.02439217042669939</v>
       </c>
       <c r="C171">
-        <v>0.8992133175840418</v>
+        <v>-0.779213666875049</v>
       </c>
       <c r="D171">
-        <v>-0.7572600247483312</v>
+        <v>-1.269322452551696</v>
+      </c>
+      <c r="E171">
+        <v>42</v>
       </c>
       <c r="F171">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -3304,16 +3805,19 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.8553443698703056</v>
+        <v>0.2568717466413943</v>
       </c>
       <c r="C172">
-        <v>0.8708372039801341</v>
+        <v>-1.001698366234396</v>
       </c>
       <c r="D172">
-        <v>0.1849481979064704</v>
+        <v>-0.6861433250333877</v>
+      </c>
+      <c r="E172">
+        <v>42</v>
       </c>
       <c r="F172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -3321,16 +3825,19 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.5825815960647782</v>
+        <v>-0.2047440306757604</v>
       </c>
       <c r="C173">
-        <v>1.707809349258853</v>
+        <v>-0.3037041874459036</v>
       </c>
       <c r="D173">
-        <v>0.1091139624245714</v>
+        <v>-1.171999409074581</v>
+      </c>
+      <c r="E173">
+        <v>42</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -3338,13 +3845,16 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.148045340267086</v>
+        <v>-0.3469920231511796</v>
       </c>
       <c r="C174">
-        <v>0.07821555123697266</v>
+        <v>-0.7866222506933559</v>
       </c>
       <c r="D174">
-        <v>0.2496077895269851</v>
+        <v>-0.3467696202709297</v>
+      </c>
+      <c r="E174">
+        <v>42</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -3355,13 +3865,16 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.6042331521006705</v>
+        <v>0.458133600169597</v>
       </c>
       <c r="C175">
-        <v>-0.1952841946981152</v>
+        <v>-0.603853893903647</v>
       </c>
       <c r="D175">
-        <v>-1.193388530525043</v>
+        <v>-1.226593919986913</v>
+      </c>
+      <c r="E175">
+        <v>42</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -3372,13 +3885,16 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.02816080911793217</v>
+        <v>0.05669595990993548</v>
       </c>
       <c r="C176">
-        <v>0.02633559193012602</v>
+        <v>-0.5925359514519105</v>
       </c>
       <c r="D176">
-        <v>-1.0148570393699</v>
+        <v>-1.028950737699175</v>
+      </c>
+      <c r="E176">
+        <v>42</v>
       </c>
       <c r="F176">
         <v>0</v>
@@ -3389,13 +3905,16 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1533539350227395</v>
+        <v>-0.4929730342674141</v>
       </c>
       <c r="C177">
-        <v>1.35886330925411</v>
+        <v>-0.2174152094934761</v>
       </c>
       <c r="D177">
-        <v>-0.4103195826510259</v>
+        <v>-1.185180938411098</v>
+      </c>
+      <c r="E177">
+        <v>42</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -3406,16 +3925,19 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.7081402122817924</v>
+        <v>0.07070454701718121</v>
       </c>
       <c r="C178">
-        <v>1.220620923758351</v>
+        <v>-0.4469482933446171</v>
       </c>
       <c r="D178">
-        <v>-0.621818103163349</v>
+        <v>-1.521641436767491</v>
+      </c>
+      <c r="E178">
+        <v>42</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -3423,16 +3945,19 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.3066751780798072</v>
+        <v>-0.08831697204641187</v>
       </c>
       <c r="C179">
-        <v>1.08950939230064</v>
+        <v>-1.239025737588874</v>
       </c>
       <c r="D179">
-        <v>0.1167228800083401</v>
+        <v>-0.7846658757800826</v>
+      </c>
+      <c r="E179">
+        <v>42</v>
       </c>
       <c r="F179">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3440,13 +3965,16 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>1.169180030983814</v>
+        <v>0.3601344441477878</v>
       </c>
       <c r="C180">
-        <v>0.2737757731911433</v>
+        <v>-1.371324517071372</v>
       </c>
       <c r="D180">
-        <v>-0.1383763082109951</v>
+        <v>-0.921074021787919</v>
+      </c>
+      <c r="E180">
+        <v>42</v>
       </c>
       <c r="F180">
         <v>0</v>
@@ -3457,13 +3985,16 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.2055563940752176</v>
+        <v>-0.8524353274630559</v>
       </c>
       <c r="C181">
-        <v>3.419987454516325</v>
+        <v>-0.6912040381256369</v>
       </c>
       <c r="D181">
-        <v>0.66601263820571</v>
+        <v>-1.256629715691781</v>
+      </c>
+      <c r="E181">
+        <v>42</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -3474,13 +4005,16 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>9.185117968362817</v>
+        <v>1.115479575052458</v>
       </c>
       <c r="C182">
-        <v>6.609124936800143</v>
+        <v>-1.535967723648591</v>
       </c>
       <c r="D182">
-        <v>-0.3308667825731927</v>
+        <v>-5.654732208851398</v>
+      </c>
+      <c r="E182">
+        <v>42</v>
       </c>
       <c r="F182">
         <v>0</v>
@@ -3491,16 +4025,19 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.5681820073689443</v>
+        <v>-0.6981471191238959</v>
       </c>
       <c r="C183">
-        <v>1.577853338854149</v>
+        <v>-0.8590274921108066</v>
       </c>
       <c r="D183">
-        <v>0.4102035781327679</v>
+        <v>-0.9885499663408706</v>
+      </c>
+      <c r="E183">
+        <v>42</v>
       </c>
       <c r="F183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3508,16 +4045,19 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.06070077627908699</v>
+        <v>-0.1679581361096605</v>
       </c>
       <c r="C184">
-        <v>0.1133414083829429</v>
+        <v>-0.2169395053661239</v>
       </c>
       <c r="D184">
-        <v>-1.214442612347917</v>
+        <v>-0.9422529720188026</v>
+      </c>
+      <c r="E184">
+        <v>42</v>
       </c>
       <c r="F184">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3525,16 +4065,19 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.6355106881427321</v>
+        <v>-0.4452719021134705</v>
       </c>
       <c r="C185">
-        <v>3.135819273296594</v>
+        <v>-0.6720798714108466</v>
       </c>
       <c r="D185">
-        <v>-0.06145953454039155</v>
+        <v>-1.66179782761044</v>
+      </c>
+      <c r="E185">
+        <v>42</v>
       </c>
       <c r="F185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -3542,16 +4085,19 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.09032016276173027</v>
+        <v>-0.4151361411706769</v>
       </c>
       <c r="C186">
-        <v>1.047262446980924</v>
+        <v>-1.140149540239435</v>
       </c>
       <c r="D186">
-        <v>0.3300243859800022</v>
+        <v>-0.2526781117493943</v>
+      </c>
+      <c r="E186">
+        <v>42</v>
       </c>
       <c r="F186">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3559,16 +4105,19 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.5900367005344633</v>
+        <v>-0.08057130736134854</v>
       </c>
       <c r="C187">
-        <v>1.793408218465562</v>
+        <v>-0.2488747531021106</v>
       </c>
       <c r="D187">
-        <v>-0.3010660527780711</v>
+        <v>-1.140055798383347</v>
+      </c>
+      <c r="E187">
+        <v>43</v>
       </c>
       <c r="F187">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3576,13 +4125,16 @@
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.4824232773249029</v>
+        <v>-0.1385769590153058</v>
       </c>
       <c r="C188">
-        <v>1.501361160537896</v>
+        <v>-0.1013569377206741</v>
       </c>
       <c r="D188">
-        <v>-1.037431807280603</v>
+        <v>-1.507157453874512</v>
+      </c>
+      <c r="E188">
+        <v>43</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -3593,13 +4145,16 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.5201514864007719</v>
+        <v>-0.1665119258200762</v>
       </c>
       <c r="C189">
-        <v>1.321693267706759</v>
+        <v>-0.1540576467859963</v>
       </c>
       <c r="D189">
-        <v>-0.6588552248904493</v>
+        <v>-1.346234684142974</v>
+      </c>
+      <c r="E189">
+        <v>43</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -3610,13 +4165,16 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>-0.6212529643182088</v>
+        <v>-1.070063891402049</v>
       </c>
       <c r="C190">
-        <v>1.022565732475724</v>
+        <v>0.05708068076537898</v>
       </c>
       <c r="D190">
-        <v>-0.05669657187441257</v>
+        <v>-0.5366318709612423</v>
+      </c>
+      <c r="E190">
+        <v>43</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -3627,16 +4185,19 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.194578952105247</v>
+        <v>-0.1943937987055931</v>
       </c>
       <c r="C191">
-        <v>1.240816344966676</v>
+        <v>-0.2210771573308473</v>
       </c>
       <c r="D191">
-        <v>-0.6130898971106299</v>
+        <v>-1.022576561269808</v>
+      </c>
+      <c r="E191">
+        <v>43</v>
       </c>
       <c r="F191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3644,13 +4205,16 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.2592990348380007</v>
+        <v>-0.3801826649949247</v>
       </c>
       <c r="C192">
-        <v>1.134003178247446</v>
+        <v>-0.1827598620933305</v>
       </c>
       <c r="D192">
-        <v>-0.7223282604480323</v>
+        <v>-1.154353640630615</v>
+      </c>
+      <c r="E192">
+        <v>43</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -3661,16 +4225,19 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.4613531441336209</v>
+        <v>-0.02241687434306794</v>
       </c>
       <c r="C193">
-        <v>0.9360502336243852</v>
+        <v>-0.4049086850822273</v>
       </c>
       <c r="D193">
-        <v>-0.7467808208315443</v>
+        <v>-1.184597869128923</v>
+      </c>
+      <c r="E193">
+        <v>43</v>
       </c>
       <c r="F193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3678,13 +4245,16 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>-0.7962442677207996</v>
+        <v>-1.007328305947266</v>
       </c>
       <c r="C194">
-        <v>1.099316507668977</v>
+        <v>0.2313606039677268</v>
       </c>
       <c r="D194">
-        <v>-0.4208217984385922</v>
+        <v>-0.7533755666570785</v>
+      </c>
+      <c r="E194">
+        <v>43</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -3695,16 +4265,19 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.4499869862381232</v>
+        <v>-0.08230906706540053</v>
       </c>
       <c r="C195">
-        <v>0.974577210511207</v>
+        <v>-0.3204190751737522</v>
       </c>
       <c r="D195">
-        <v>-0.6802581343631586</v>
+        <v>-1.191452256886501</v>
+      </c>
+      <c r="E195">
+        <v>43</v>
       </c>
       <c r="F195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -3712,16 +4285,19 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.4756493947563212</v>
+        <v>-0.2066720701424338</v>
       </c>
       <c r="C196">
-        <v>1.194893770068581</v>
+        <v>-0.3268546278531929</v>
       </c>
       <c r="D196">
-        <v>-0.5641867319005627</v>
+        <v>-1.191986618744868</v>
+      </c>
+      <c r="E196">
+        <v>43</v>
       </c>
       <c r="F196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3729,16 +4305,19 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.5048658335752809</v>
+        <v>-0.05267001173161723</v>
       </c>
       <c r="C197">
-        <v>2.244742555339573</v>
+        <v>-0.1959769454308343</v>
       </c>
       <c r="D197">
-        <v>-0.6337968086893091</v>
+        <v>-1.677386993763125</v>
+      </c>
+      <c r="E197">
+        <v>43</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3746,13 +4325,16 @@
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.1122847696799347</v>
+        <v>-0.2384143350862103</v>
       </c>
       <c r="C198">
-        <v>1.330833007661047</v>
+        <v>-0.1630294130026143</v>
       </c>
       <c r="D198">
-        <v>-0.5453254649125284</v>
+        <v>-1.125789935099048</v>
+      </c>
+      <c r="E198">
+        <v>43</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -3763,13 +4345,16 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.8643106917879102</v>
+        <v>0.1702188615136768</v>
       </c>
       <c r="C199">
-        <v>0.8531730785906346</v>
+        <v>-0.4853498075249213</v>
       </c>
       <c r="D199">
-        <v>-0.7782591788237379</v>
+        <v>-1.385799536334343</v>
+      </c>
+      <c r="E199">
+        <v>43</v>
       </c>
       <c r="F199">
         <v>0</v>
@@ -3780,16 +4365,19 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>1.047396827886278</v>
+        <v>0.1762320356421387</v>
       </c>
       <c r="C200">
-        <v>1.271324560975731</v>
+        <v>-0.3246393595206561</v>
       </c>
       <c r="D200">
-        <v>-0.9783491404290889</v>
+        <v>-1.535689667346776</v>
+      </c>
+      <c r="E200">
+        <v>43</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -3797,13 +4385,16 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>1.268988757445817</v>
+        <v>0.6136640808685254</v>
       </c>
       <c r="C201">
-        <v>0.9832428570803288</v>
+        <v>-0.1855627269093504</v>
       </c>
       <c r="D201">
-        <v>-1.494369128964625</v>
+        <v>-1.935832850584855</v>
+      </c>
+      <c r="E201">
+        <v>43</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -3814,13 +4405,16 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>1.059900660463155</v>
+        <v>0.5782473256657841</v>
       </c>
       <c r="C202">
-        <v>0.7927098384855367</v>
+        <v>-0.3332122128782188</v>
       </c>
       <c r="D202">
-        <v>-1.807394819999584</v>
+        <v>-1.938745627593094</v>
+      </c>
+      <c r="E202">
+        <v>43</v>
       </c>
       <c r="F202">
         <v>0</v>
@@ -3831,16 +4425,19 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.5033604889078478</v>
+        <v>-0.158645728229346</v>
       </c>
       <c r="C203">
-        <v>1.574801895981885</v>
+        <v>-0.1735341042081695</v>
       </c>
       <c r="D203">
-        <v>-0.6829329713847734</v>
+        <v>-1.238588705584506</v>
+      </c>
+      <c r="E203">
+        <v>43</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3848,16 +4445,19 @@
         <v>202</v>
       </c>
       <c r="B204">
-        <v>1.301588510163355</v>
+        <v>0.3622660885924922</v>
       </c>
       <c r="C204">
-        <v>2.023522494937164</v>
+        <v>-0.3227641507081346</v>
       </c>
       <c r="D204">
-        <v>-1.187962476928916</v>
+        <v>-2.008767888480676</v>
+      </c>
+      <c r="E204">
+        <v>43</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3865,13 +4465,16 @@
         <v>203</v>
       </c>
       <c r="B205">
-        <v>1.97120076808903</v>
+        <v>1.064430395059713</v>
       </c>
       <c r="C205">
-        <v>1.050136666399431</v>
+        <v>-1.212203817180519</v>
       </c>
       <c r="D205">
-        <v>-0.5370117513026502</v>
+        <v>-1.454939648126228</v>
+      </c>
+      <c r="E205">
+        <v>43</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -3882,16 +4485,19 @@
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.8003413262981574</v>
+        <v>0.7186050075190169</v>
       </c>
       <c r="C206">
-        <v>1.075884404458916</v>
+        <v>-0.174751154492146</v>
       </c>
       <c r="D206">
-        <v>-1.843505371536405</v>
+        <v>-1.943293610956126</v>
+      </c>
+      <c r="E206">
+        <v>43</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3899,16 +4505,19 @@
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.9883584392783638</v>
+        <v>0.3695217815225491</v>
       </c>
       <c r="C207">
-        <v>1.197459621439292</v>
+        <v>-0.4597934566112111</v>
       </c>
       <c r="D207">
-        <v>-0.943152450678556</v>
+        <v>-1.576184161287526</v>
+      </c>
+      <c r="E207">
+        <v>43</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3916,16 +4525,19 @@
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.7774446276540066</v>
+        <v>0.4251803246543819</v>
       </c>
       <c r="C208">
-        <v>0.9862731735018593</v>
+        <v>-0.2686860520691908</v>
       </c>
       <c r="D208">
-        <v>-1.47838193871508</v>
+        <v>-1.748038173189546</v>
+      </c>
+      <c r="E208">
+        <v>43</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -3933,13 +4545,16 @@
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.7832365170676554</v>
+        <v>0.2757729008624292</v>
       </c>
       <c r="C209">
-        <v>0.711807445183992</v>
+        <v>-0.425762959601567</v>
       </c>
       <c r="D209">
-        <v>-1.105379287267305</v>
+        <v>-1.367626639558634</v>
+      </c>
+      <c r="E209">
+        <v>43</v>
       </c>
       <c r="F209">
         <v>0</v>
@@ -3950,13 +4565,16 @@
         <v>208</v>
       </c>
       <c r="B210">
-        <v>-0.06683942723416214</v>
+        <v>-0.714005285709278</v>
       </c>
       <c r="C210">
-        <v>1.053116705357663</v>
+        <v>-0.5246913462631345</v>
       </c>
       <c r="D210">
-        <v>-0.422081121771135</v>
+        <v>-1.240887456817321</v>
+      </c>
+      <c r="E210">
+        <v>44</v>
       </c>
       <c r="F210">
         <v>1</v>
@@ -3967,16 +4585,19 @@
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1817052114549631</v>
+        <v>-0.215847613704318</v>
       </c>
       <c r="C211">
-        <v>0.8231873915047458</v>
+        <v>-0.3335674855338188</v>
       </c>
       <c r="D211">
-        <v>-0.5192613233892527</v>
+        <v>-1.03625952717926</v>
+      </c>
+      <c r="E211">
+        <v>44</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -3984,13 +4605,16 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.04179927835895803</v>
+        <v>-1.169339906209893</v>
       </c>
       <c r="C212">
-        <v>4.706970415566649</v>
+        <v>0.5944428557266048</v>
       </c>
       <c r="D212">
-        <v>0.1520599085293015</v>
+        <v>-1.914519432526875</v>
+      </c>
+      <c r="E212">
+        <v>44</v>
       </c>
       <c r="F212">
         <v>1</v>
@@ -4001,13 +4625,16 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>-0.07669235281591558</v>
+        <v>-0.3698911380375928</v>
       </c>
       <c r="C213">
-        <v>1.872106982017377</v>
+        <v>0.4487163498695758</v>
       </c>
       <c r="D213">
-        <v>-0.9663417098227478</v>
+        <v>-1.41279699682563</v>
+      </c>
+      <c r="E213">
+        <v>44</v>
       </c>
       <c r="F213">
         <v>1</v>
@@ -4018,13 +4645,16 @@
         <v>212</v>
       </c>
       <c r="B214">
-        <v>-0.3294595953176076</v>
+        <v>-0.433261756798988</v>
       </c>
       <c r="C214">
-        <v>1.508175334222569</v>
+        <v>0.7240452914031988</v>
       </c>
       <c r="D214">
-        <v>-2.525159850502121</v>
+        <v>-2.185213047160807</v>
+      </c>
+      <c r="E214">
+        <v>44</v>
       </c>
       <c r="F214">
         <v>1</v>
@@ -4035,13 +4665,16 @@
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.5911563928122456</v>
+        <v>0.2653041585992892</v>
       </c>
       <c r="C215">
-        <v>1.034255407216585</v>
+        <v>0.2859569032398227</v>
       </c>
       <c r="D215">
-        <v>-2.727623176957656</v>
+        <v>-2.501694483053977</v>
+      </c>
+      <c r="E215">
+        <v>44</v>
       </c>
       <c r="F215">
         <v>1</v>
@@ -4052,13 +4685,16 @@
         <v>214</v>
       </c>
       <c r="B216">
-        <v>-0.1623163363699949</v>
+        <v>-0.5428766575193403</v>
       </c>
       <c r="C216">
-        <v>1.745575791383815</v>
+        <v>0.4941944763848267</v>
       </c>
       <c r="D216">
-        <v>-1.345798036449181</v>
+        <v>-1.821957766090571</v>
+      </c>
+      <c r="E216">
+        <v>44</v>
       </c>
       <c r="F216">
         <v>1</v>
@@ -4069,13 +4705,16 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>-0.6395048914989576</v>
+        <v>-1.040725654058777</v>
       </c>
       <c r="C217">
-        <v>1.557496429110919</v>
+        <v>0.7832631204493593</v>
       </c>
       <c r="D217">
-        <v>-1.085344152413882</v>
+        <v>-1.347348621962041</v>
+      </c>
+      <c r="E217">
+        <v>44</v>
       </c>
       <c r="F217">
         <v>1</v>
@@ -4086,13 +4725,16 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>-0.4085455370379081</v>
+        <v>-0.7246400264134674</v>
       </c>
       <c r="C218">
-        <v>1.206119770198653</v>
+        <v>0.6437819910438315</v>
       </c>
       <c r="D218">
-        <v>-1.932032560241191</v>
+        <v>-1.629355328031068</v>
+      </c>
+      <c r="E218">
+        <v>44</v>
       </c>
       <c r="F218">
         <v>1</v>
@@ -4103,13 +4745,16 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>-0.1705818500508725</v>
+        <v>-0.5483886701171916</v>
       </c>
       <c r="C219">
-        <v>2.000800173754695</v>
+        <v>0.4293333050392161</v>
       </c>
       <c r="D219">
-        <v>-1.319978649187743</v>
+        <v>-1.714377427680924</v>
+      </c>
+      <c r="E219">
+        <v>44</v>
       </c>
       <c r="F219">
         <v>1</v>
@@ -4120,13 +4765,16 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>-0.06500785839793166</v>
+        <v>-0.536777485896442</v>
       </c>
       <c r="C220">
-        <v>1.146210176178354</v>
+        <v>-0.1544510684598193</v>
       </c>
       <c r="D220">
-        <v>-0.9083802622970424</v>
+        <v>-1.19608629729191</v>
+      </c>
+      <c r="E220">
+        <v>44</v>
       </c>
       <c r="F220">
         <v>1</v>
@@ -4137,13 +4785,16 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.418852052928429</v>
+        <v>-0.1138316531568472</v>
       </c>
       <c r="C221">
-        <v>1.999509011103788</v>
+        <v>0.4599133045441506</v>
       </c>
       <c r="D221">
-        <v>-1.60473107392092</v>
+        <v>-1.929804429180541</v>
+      </c>
+      <c r="E221">
+        <v>44</v>
       </c>
       <c r="F221">
         <v>1</v>
@@ -4154,13 +4805,16 @@
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.6825129594807042</v>
+        <v>-0.01279399388266977</v>
       </c>
       <c r="C222">
-        <v>2.479593321059468</v>
+        <v>0.1599486401238341</v>
       </c>
       <c r="D222">
-        <v>-2.061033464833921</v>
+        <v>-2.456651052089679</v>
+      </c>
+      <c r="E222">
+        <v>44</v>
       </c>
       <c r="F222">
         <v>1</v>
@@ -4171,13 +4825,16 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.6313884436687061</v>
+        <v>0.07057867698690501</v>
       </c>
       <c r="C223">
-        <v>1.698348006470249</v>
+        <v>0.07617596759381462</v>
       </c>
       <c r="D223">
-        <v>-1.439673921734717</v>
+        <v>-1.939159677624288</v>
+      </c>
+      <c r="E223">
+        <v>44</v>
       </c>
       <c r="F223">
         <v>1</v>
@@ -4188,13 +4845,16 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.01631615323696578</v>
+        <v>-0.3320904028274289</v>
       </c>
       <c r="C224">
-        <v>1.031588929938244</v>
+        <v>0.1984710017824927</v>
       </c>
       <c r="D224">
-        <v>-1.401586569927202</v>
+        <v>-1.524789996325693</v>
+      </c>
+      <c r="E224">
+        <v>44</v>
       </c>
       <c r="F224">
         <v>1</v>
@@ -4205,13 +4865,16 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.3118188130719077</v>
+        <v>-0.01497294720990272</v>
       </c>
       <c r="C225">
-        <v>1.059166085718216</v>
+        <v>0.5058304086321546</v>
       </c>
       <c r="D225">
-        <v>-2.196245307313695</v>
+        <v>-2.206269032202426</v>
+      </c>
+      <c r="E225">
+        <v>44</v>
       </c>
       <c r="F225">
         <v>1</v>
@@ -4222,16 +4885,19 @@
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.6046459025438278</v>
+        <v>-0.02534546646568647</v>
       </c>
       <c r="C226">
-        <v>0.861847443121877</v>
+        <v>-0.3823254310644643</v>
       </c>
       <c r="D226">
-        <v>-0.9744683399535601</v>
+        <v>-1.495334689233555</v>
+      </c>
+      <c r="E226">
+        <v>44</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -4239,13 +4905,16 @@
         <v>225</v>
       </c>
       <c r="B227">
-        <v>-0.1392381718118401</v>
+        <v>-0.8093964800195022</v>
       </c>
       <c r="C227">
-        <v>1.379934677315885</v>
+        <v>0.1522752902488931</v>
       </c>
       <c r="D227">
-        <v>-0.6036137534744423</v>
+        <v>-1.206900393725909</v>
+      </c>
+      <c r="E227">
+        <v>44</v>
       </c>
       <c r="F227">
         <v>1</v>
@@ -4256,13 +4925,16 @@
         <v>226</v>
       </c>
       <c r="B228">
-        <v>-0.1594510051771143</v>
+        <v>-0.6699053371400803</v>
       </c>
       <c r="C228">
-        <v>1.673631285613365</v>
+        <v>0.5044411138390992</v>
       </c>
       <c r="D228">
-        <v>-0.7187085302204502</v>
+        <v>-1.415191242945054</v>
+      </c>
+      <c r="E228">
+        <v>44</v>
       </c>
       <c r="F228">
         <v>1</v>
@@ -4273,13 +4945,16 @@
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.4388506456021481</v>
+        <v>-0.0899142463946343</v>
       </c>
       <c r="C229">
-        <v>1.025911872148976</v>
+        <v>0.3608641354072543</v>
       </c>
       <c r="D229">
-        <v>-2.248271592404592</v>
+        <v>-2.111382333092551</v>
+      </c>
+      <c r="E229">
+        <v>44</v>
       </c>
       <c r="F229">
         <v>1</v>
@@ -4290,13 +4965,16 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>-0.1378732366491946</v>
+        <v>-0.6994466847350354</v>
       </c>
       <c r="C230">
-        <v>2.464264218367784</v>
+        <v>0.6462613387810635</v>
       </c>
       <c r="D230">
-        <v>-1.481016457969495</v>
+        <v>-1.988946748318634</v>
+      </c>
+      <c r="E230">
+        <v>44</v>
       </c>
       <c r="F230">
         <v>1</v>
@@ -4307,13 +4985,16 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>-0.1511221978454969</v>
+        <v>-1.748915115295694</v>
       </c>
       <c r="C231">
-        <v>6.885614600287301</v>
+        <v>0.8557794022558507</v>
       </c>
       <c r="D231">
-        <v>-0.007881799858013072</v>
+        <v>-2.675156779262053</v>
+      </c>
+      <c r="E231">
+        <v>44</v>
       </c>
       <c r="F231">
         <v>1</v>
@@ -4324,13 +5005,16 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>1.533663451911188</v>
+        <v>-0.8378706888730106</v>
       </c>
       <c r="C232">
-        <v>5.701437361236135</v>
+        <v>-0.4480674530774936</v>
       </c>
       <c r="D232">
-        <v>0.4279744669849739</v>
+        <v>-2.644647442662432</v>
+      </c>
+      <c r="E232">
+        <v>44</v>
       </c>
       <c r="F232">
         <v>1</v>
@@ -4341,13 +5025,16 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.4697272993397834</v>
+        <v>-0.103802359693709</v>
       </c>
       <c r="C233">
-        <v>2.01939042815372</v>
+        <v>0.1446327387160715</v>
       </c>
       <c r="D233">
-        <v>-0.8778308888696849</v>
+        <v>-1.760440793707773</v>
+      </c>
+      <c r="E233">
+        <v>44</v>
       </c>
       <c r="F233">
         <v>1</v>
@@ -4358,13 +5045,16 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.8427352319370391</v>
+        <v>-0.364079789563945</v>
       </c>
       <c r="C234">
-        <v>4.032176254001826</v>
+        <v>-0.2093822778523594</v>
       </c>
       <c r="D234">
-        <v>-0.4057080294698808</v>
+        <v>-2.119666478125865</v>
+      </c>
+      <c r="E234">
+        <v>44</v>
       </c>
       <c r="F234">
         <v>1</v>
@@ -4375,13 +5065,16 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>-0.05160627649447824</v>
+        <v>-0.5701707363802521</v>
       </c>
       <c r="C235">
-        <v>3.270195455849628</v>
+        <v>0.5964955557571384</v>
       </c>
       <c r="D235">
-        <v>-0.2866724663400638</v>
+        <v>-1.547354661423946</v>
+      </c>
+      <c r="E235">
+        <v>44</v>
       </c>
       <c r="F235">
         <v>1</v>
@@ -4392,13 +5085,16 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.7310473660673535</v>
+        <v>-0.3932205673090634</v>
       </c>
       <c r="C236">
-        <v>4.743143705831359</v>
+        <v>0.3796096933769357</v>
       </c>
       <c r="D236">
-        <v>-1.599741636178615</v>
+        <v>-2.8154923218964</v>
+      </c>
+      <c r="E236">
+        <v>44</v>
       </c>
       <c r="F236">
         <v>1</v>
@@ -4409,13 +5105,16 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>-0.1322328841417602</v>
+        <v>-0.4508999691347907</v>
       </c>
       <c r="C237">
-        <v>1.619757590683842</v>
+        <v>0.1165036011846872</v>
       </c>
       <c r="D237">
-        <v>-0.8855543543805274</v>
+        <v>-1.518226553186993</v>
+      </c>
+      <c r="E237">
+        <v>44</v>
       </c>
       <c r="F237">
         <v>1</v>
@@ -4426,16 +5125,19 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.7997632690672427</v>
+        <v>0.07342449123704231</v>
       </c>
       <c r="C238">
-        <v>1.182900065823683</v>
+        <v>0.04290547318733984</v>
       </c>
       <c r="D238">
-        <v>-1.969772892053451</v>
+        <v>-2.290315254743812</v>
+      </c>
+      <c r="E238">
+        <v>44</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -4443,13 +5145,16 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>-0.4471958867380081</v>
+        <v>-0.5940896357209252</v>
       </c>
       <c r="C239">
-        <v>2.603305277518234</v>
+        <v>0.6451419628613652</v>
       </c>
       <c r="D239">
-        <v>-1.784009361204468</v>
+        <v>-2.241053570244091</v>
+      </c>
+      <c r="E239">
+        <v>44</v>
       </c>
       <c r="F239">
         <v>1</v>
@@ -4460,13 +5165,16 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.8705581947671481</v>
+        <v>-0.3759769939024711</v>
       </c>
       <c r="C240">
-        <v>3.655743885504101</v>
+        <v>0.2790240249786944</v>
       </c>
       <c r="D240">
-        <v>-1.146051414075629</v>
+        <v>-2.618195526458368</v>
+      </c>
+      <c r="E240">
+        <v>44</v>
       </c>
       <c r="F240">
         <v>1</v>
@@ -4477,13 +5185,16 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.3479993929987009</v>
+        <v>-0.3977234705294709</v>
       </c>
       <c r="C241">
-        <v>1.619312069854007</v>
+        <v>0.2536342570681707</v>
       </c>
       <c r="D241">
-        <v>-1.183844475762625</v>
+        <v>-1.747730385650001</v>
+      </c>
+      <c r="E241">
+        <v>44</v>
       </c>
       <c r="F241">
         <v>1</v>
@@ -4494,13 +5205,16 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0.7918228656704782</v>
+        <v>-0.1380792962831057</v>
       </c>
       <c r="C242">
-        <v>1.839270916696508</v>
+        <v>-0.1234978672310041</v>
       </c>
       <c r="D242">
-        <v>-0.5748537753114185</v>
+        <v>-1.523659536513689</v>
+      </c>
+      <c r="E242">
+        <v>44</v>
       </c>
       <c r="F242">
         <v>1</v>
@@ -4511,13 +5225,16 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>1.190759449836015</v>
+        <v>0.9489628442895228</v>
       </c>
       <c r="C243">
-        <v>0.1014159068126665</v>
+        <v>-0.4977555090411182</v>
       </c>
       <c r="D243">
-        <v>-2.201012614894073</v>
+        <v>-2.040742775276905</v>
+      </c>
+      <c r="E243">
+        <v>44</v>
       </c>
       <c r="F243">
         <v>0</v>
@@ -4528,13 +5245,16 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>-0.283369666730634</v>
+        <v>-0.5428626284906214</v>
       </c>
       <c r="C244">
-        <v>1.40325754634497</v>
+        <v>0.2677246394456185</v>
       </c>
       <c r="D244">
-        <v>-1.044911158052491</v>
+        <v>-1.292387915293534</v>
+      </c>
+      <c r="E244">
+        <v>44</v>
       </c>
       <c r="F244">
         <v>1</v>
@@ -4545,16 +5265,19 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>0.6715069800849784</v>
+        <v>0.07482340319946967</v>
       </c>
       <c r="C245">
-        <v>1.905299930054772</v>
+        <v>0.05315002066751451</v>
       </c>
       <c r="D245">
-        <v>-1.310295859763664</v>
+        <v>-1.866218190948393</v>
+      </c>
+      <c r="E245">
+        <v>44</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -4562,16 +5285,19 @@
         <v>244</v>
       </c>
       <c r="B246">
-        <v>1.037947345472852</v>
+        <v>-0.05368301045882795</v>
       </c>
       <c r="C246">
-        <v>3.017261442751963</v>
+        <v>-0.1231163986968109</v>
       </c>
       <c r="D246">
-        <v>-0.9270990708056392</v>
+        <v>-2.27830928523018</v>
+      </c>
+      <c r="E246">
+        <v>44</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -4579,13 +5305,16 @@
         <v>245</v>
       </c>
       <c r="B247">
-        <v>1.064975564323833</v>
+        <v>-0.2722331851869558</v>
       </c>
       <c r="C247">
-        <v>2.993386047143921</v>
+        <v>0.01582669599725672</v>
       </c>
       <c r="D247">
-        <v>-0.6991128388617101</v>
+        <v>-1.93809274392512</v>
+      </c>
+      <c r="E247">
+        <v>44</v>
       </c>
       <c r="F247">
         <v>1</v>
@@ -4596,13 +5325,16 @@
         <v>246</v>
       </c>
       <c r="B248">
-        <v>1.453112108400459</v>
+        <v>0.9576937387437836</v>
       </c>
       <c r="C248">
-        <v>-0.4765097480937095</v>
+        <v>-1.351675341629951</v>
       </c>
       <c r="D248">
-        <v>-0.9246810154765247</v>
+        <v>-1.17403276505106</v>
+      </c>
+      <c r="E248">
+        <v>44</v>
       </c>
       <c r="F248">
         <v>0</v>
@@ -4613,13 +5345,16 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>0.4767778015958442</v>
+        <v>-0.3079216633545674</v>
       </c>
       <c r="C249">
-        <v>2.099319975889244</v>
+        <v>0.3324560796019828</v>
       </c>
       <c r="D249">
-        <v>-0.6612337353341226</v>
+        <v>-1.455158294780458</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
       </c>
       <c r="F249">
         <v>1</v>
@@ -4630,16 +5365,19 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>0.8284443439990126</v>
+        <v>-0.1581206487663396</v>
       </c>
       <c r="C250">
-        <v>2.947834432438201</v>
+        <v>-0.1939574497407036</v>
       </c>
       <c r="D250">
-        <v>-0.5063758209184851</v>
+        <v>-1.820430012581771</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -4647,16 +5385,19 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0.9376068804582425</v>
+        <v>0.2845581189375055</v>
       </c>
       <c r="C251">
-        <v>2.05774442631268</v>
+        <v>-0.1319526674191573</v>
       </c>
       <c r="D251">
-        <v>-1.546552392210828</v>
+        <v>-2.124492739950262</v>
+      </c>
+      <c r="E251">
+        <v>45</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -4664,13 +5405,16 @@
         <v>250</v>
       </c>
       <c r="B252">
-        <v>0.8429139978819391</v>
+        <v>0.6130346331246477</v>
       </c>
       <c r="C252">
-        <v>0.217676725464903</v>
+        <v>-0.5439489305260533</v>
       </c>
       <c r="D252">
-        <v>-1.707928816514573</v>
+        <v>-1.801624104220762</v>
+      </c>
+      <c r="E252">
+        <v>45</v>
       </c>
       <c r="F252">
         <v>0</v>
@@ -4681,13 +5425,16 @@
         <v>251</v>
       </c>
       <c r="B253">
-        <v>0.1351624855192721</v>
+        <v>-0.8049675201970171</v>
       </c>
       <c r="C253">
-        <v>2.736523805052682</v>
+        <v>0.3248338612948679</v>
       </c>
       <c r="D253">
-        <v>1.52684129169911e-05</v>
+        <v>-1.172761203746652</v>
+      </c>
+      <c r="E253">
+        <v>45</v>
       </c>
       <c r="F253">
         <v>1</v>
@@ -4698,16 +5445,19 @@
         <v>252</v>
       </c>
       <c r="B254">
-        <v>0.4961234349817074</v>
+        <v>0.02835845682335547</v>
       </c>
       <c r="C254">
-        <v>1.293705584216417</v>
+        <v>-0.7619106191656714</v>
       </c>
       <c r="D254">
-        <v>-0.4381298225352362</v>
+        <v>-1.20533096189144</v>
+      </c>
+      <c r="E254">
+        <v>45</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -4715,13 +5465,16 @@
         <v>253</v>
       </c>
       <c r="B255">
-        <v>-0.3421609412272357</v>
+        <v>-0.9378134486566437</v>
       </c>
       <c r="C255">
-        <v>1.190170925317605</v>
+        <v>0.01758269744635366</v>
       </c>
       <c r="D255">
-        <v>0.6476107735098667</v>
+        <v>-0.3977518756174273</v>
+      </c>
+      <c r="E255">
+        <v>45</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -4732,13 +5485,16 @@
         <v>254</v>
       </c>
       <c r="B256">
-        <v>-0.2876174020295845</v>
+        <v>-1.049250294679718</v>
       </c>
       <c r="C256">
-        <v>2.761679912687208</v>
+        <v>-0.003627524852285458</v>
       </c>
       <c r="D256">
-        <v>0.60485848070973</v>
+        <v>-0.9754162007527488</v>
+      </c>
+      <c r="E256">
+        <v>45</v>
       </c>
       <c r="F256">
         <v>1</v>
@@ -4749,13 +5505,16 @@
         <v>255</v>
       </c>
       <c r="B257">
-        <v>0.08919554188235357</v>
+        <v>-0.645962071856691</v>
       </c>
       <c r="C257">
-        <v>2.114132035482964</v>
+        <v>-0.03022619503479029</v>
       </c>
       <c r="D257">
-        <v>-0.275519882906494</v>
+        <v>-1.385538665892835</v>
+      </c>
+      <c r="E257">
+        <v>45</v>
       </c>
       <c r="F257">
         <v>1</v>
@@ -4766,13 +5525,16 @@
         <v>256</v>
       </c>
       <c r="B258">
-        <v>0.5989680895854987</v>
+        <v>-0.4573042855850126</v>
       </c>
       <c r="C258">
-        <v>2.954380863409742</v>
+        <v>-0.2151207644424892</v>
       </c>
       <c r="D258">
-        <v>0.1634964133550113</v>
+        <v>-1.440717403375442</v>
+      </c>
+      <c r="E258">
+        <v>45</v>
       </c>
       <c r="F258">
         <v>1</v>
@@ -4783,13 +5545,16 @@
         <v>257</v>
       </c>
       <c r="B259">
-        <v>0.9170912632731008</v>
+        <v>-0.04422213764085958</v>
       </c>
       <c r="C259">
-        <v>0.4551682664494833</v>
+        <v>-0.7996393637308957</v>
       </c>
       <c r="D259">
-        <v>-0.5381667864965358</v>
+        <v>-1.280821033841253</v>
+      </c>
+      <c r="E259">
+        <v>45</v>
       </c>
       <c r="F259">
         <v>0</v>
@@ -4800,13 +5565,16 @@
         <v>258</v>
       </c>
       <c r="B260">
-        <v>0.3860138179282147</v>
+        <v>-0.08376799746763552</v>
       </c>
       <c r="C260">
-        <v>-0.2959347914918347</v>
+        <v>-0.9304431922273465</v>
       </c>
       <c r="D260">
-        <v>-0.296886645942526</v>
+        <v>-0.7355290302929651</v>
+      </c>
+      <c r="E260">
+        <v>45</v>
       </c>
       <c r="F260">
         <v>0</v>
@@ -4817,16 +5585,19 @@
         <v>259</v>
       </c>
       <c r="B261">
-        <v>0.3576566027736328</v>
+        <v>-0.2988759738893105</v>
       </c>
       <c r="C261">
-        <v>2.097349283419303</v>
+        <v>-0.5731187150230449</v>
       </c>
       <c r="D261">
-        <v>0.1521758538920336</v>
+        <v>-1.308109907671718</v>
+      </c>
+      <c r="E261">
+        <v>45</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -4834,16 +5605,19 @@
         <v>260</v>
       </c>
       <c r="B262">
-        <v>1.1090289608548</v>
+        <v>0.06202949707940353</v>
       </c>
       <c r="C262">
-        <v>2.476911384041407</v>
+        <v>-0.6491083320681187</v>
       </c>
       <c r="D262">
-        <v>-0.4386913884278727</v>
+        <v>-1.612156910526924</v>
+      </c>
+      <c r="E262">
+        <v>45</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -4851,13 +5625,16 @@
         <v>261</v>
       </c>
       <c r="B263">
-        <v>0.4722619072188698</v>
+        <v>-0.5857312671318966</v>
       </c>
       <c r="C263">
-        <v>1.982292783241605</v>
+        <v>-0.1034817740446399</v>
       </c>
       <c r="D263">
-        <v>0.8242720333180097</v>
+        <v>-0.4327920632475998</v>
+      </c>
+      <c r="E263">
+        <v>45</v>
       </c>
       <c r="F263">
         <v>1</v>
@@ -4868,16 +5645,19 @@
         <v>262</v>
       </c>
       <c r="B264">
-        <v>0.4948280644025664</v>
+        <v>0.05604079770818338</v>
       </c>
       <c r="C264">
-        <v>1.16156499246454</v>
+        <v>-0.33573714572538</v>
       </c>
       <c r="D264">
-        <v>-0.9606827952601109</v>
+        <v>-1.415418027817209</v>
+      </c>
+      <c r="E264">
+        <v>45</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -4885,13 +5665,16 @@
         <v>263</v>
       </c>
       <c r="B265">
-        <v>1.149618153813462</v>
+        <v>0.6831481949273108</v>
       </c>
       <c r="C265">
-        <v>0.4556993205711638</v>
+        <v>-1.054633470052717</v>
       </c>
       <c r="D265">
-        <v>-0.6819146393666381</v>
+        <v>-1.268697948871089</v>
+      </c>
+      <c r="E265">
+        <v>45</v>
       </c>
       <c r="F265">
         <v>0</v>
@@ -4902,13 +5685,16 @@
         <v>264</v>
       </c>
       <c r="B266">
-        <v>0.3324559699802991</v>
+        <v>-0.4155692609668871</v>
       </c>
       <c r="C266">
-        <v>2.65161587646928</v>
+        <v>-0.2738581013823534</v>
       </c>
       <c r="D266">
-        <v>-0.2392183080593335</v>
+        <v>-1.637611883667175</v>
+      </c>
+      <c r="E266">
+        <v>45</v>
       </c>
       <c r="F266">
         <v>1</v>
@@ -4919,13 +5705,16 @@
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0.4853984663736282</v>
+        <v>-0.7760603134280067</v>
       </c>
       <c r="C267">
-        <v>3.98711155622299</v>
+        <v>0.07347262461735327</v>
       </c>
       <c r="D267">
-        <v>0.07484167104534356</v>
+        <v>-1.804189166343063</v>
+      </c>
+      <c r="E267">
+        <v>45</v>
       </c>
       <c r="F267">
         <v>1</v>
@@ -4936,16 +5725,19 @@
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0.4236274995118072</v>
+        <v>-0.1109528013817727</v>
       </c>
       <c r="C268">
-        <v>0.8329205563248359</v>
+        <v>-0.3542252646100589</v>
       </c>
       <c r="D268">
-        <v>-0.5267265127309618</v>
+        <v>-1.193831370555199</v>
+      </c>
+      <c r="E268">
+        <v>45</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -4953,13 +5745,16 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>0.3750791966145197</v>
+        <v>-0.3184110455686936</v>
       </c>
       <c r="C269">
-        <v>1.665951444442333</v>
+        <v>-0.1029542556860836</v>
       </c>
       <c r="D269">
-        <v>-0.7878717501831047</v>
+        <v>-1.703832679330217</v>
+      </c>
+      <c r="E269">
+        <v>45</v>
       </c>
       <c r="F269">
         <v>1</v>
